--- a/modelCsharp/SVSModel/Data/CropCoefficientTable.xlsx
+++ b/modelCsharp/SVSModel/Data/CropCoefficientTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\SVS\modelCsharp\SVSModel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\SVS\modelCsharp\SVSModel\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AECD3CC6-A0DA-45C4-9D5F-5A0C5EE6EF7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E31A8FF-0F87-4336-805C-94E801868D21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-5925" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CropCoefficientTable" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CropCoefficientTable!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="230">
   <si>
     <t>Group</t>
   </si>
@@ -724,6 +725,9 @@
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>Typical Population (/ha)</t>
   </si>
 </sst>
 </file>
@@ -1158,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF70"/>
+  <dimension ref="A1:AG70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,22 +1189,22 @@
     <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8" customWidth="1"/>
-    <col min="29" max="29" width="7.28515625" customWidth="1"/>
-    <col min="30" max="30" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8" customWidth="1"/>
+    <col min="30" max="30" width="7.28515625" customWidth="1"/>
+    <col min="31" max="31" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>189</v>
       </c>
@@ -1259,48 +1263,51 @@
         <v>7</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="str">
-        <f>E2&amp;" "&amp;C2&amp;" "&amp;F2</f>
+        <f t="shared" ref="A2:A33" si="0">E2&amp;" "&amp;C2&amp;" "&amp;F2</f>
         <v>Oat Fodder General</v>
       </c>
       <c r="B2" s="2">
@@ -1331,11 +1338,11 @@
         <v>205</v>
       </c>
       <c r="K2" s="5" t="str">
-        <f t="shared" ref="K2:K26" si="0">H2&amp;" "&amp;I2&amp;" "&amp;J2</f>
+        <f t="shared" ref="K2:K26" si="1">H2&amp;" "&amp;I2&amp;" "&amp;J2</f>
         <v xml:space="preserve">Avena sativa </v>
       </c>
       <c r="L2" s="5" t="str">
-        <f t="shared" ref="L2:L26" si="1">I2&amp;" "&amp;J2</f>
+        <f t="shared" ref="L2:L26" si="2">I2&amp;" "&amp;J2</f>
         <v xml:space="preserve">sativa </v>
       </c>
       <c r="M2" s="2" t="s">
@@ -1359,49 +1366,52 @@
       <c r="S2" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U2" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="U2" s="2">
-        <v>0</v>
-      </c>
-      <c r="V2" s="3">
-        <v>0</v>
-      </c>
-      <c r="W2" s="2">
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="3">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
         <v>0.95</v>
       </c>
-      <c r="X2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="3">
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="3">
         <v>80</v>
       </c>
-      <c r="Z2" s="6">
+      <c r="AA2" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA2" s="10">
+      <c r="AB2" s="10">
         <v>1.5</v>
       </c>
-      <c r="AB2" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="2">
+      <c r="AC2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="2">
         <v>0.9</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AF2" s="2">
         <v>0.5</v>
       </c>
-      <c r="AF2" s="3">
+      <c r="AG2" s="3">
         <v>1.3</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="str">
-        <f>E3&amp;" "&amp;C3&amp;" "&amp;F3</f>
+        <f t="shared" si="0"/>
         <v>Fodder beet Fodder General</v>
       </c>
       <c r="B3" s="2">
@@ -1432,11 +1442,11 @@
         <v>208</v>
       </c>
       <c r="K3" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Beta vulgaris crassa</v>
       </c>
       <c r="L3" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>vulgaris crassa</v>
       </c>
       <c r="M3" s="2" t="s">
@@ -1460,49 +1470,52 @@
       <c r="S3" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U3" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="U3" s="2">
-        <v>0</v>
-      </c>
-      <c r="V3" s="3">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2">
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
         <v>0.88949999999999996</v>
       </c>
-      <c r="X3" s="2">
+      <c r="Y3" s="2">
         <v>-0.11049999999999993</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Z3" s="3">
         <v>17</v>
       </c>
-      <c r="Z3" s="6">
+      <c r="AA3" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA3" s="10">
+      <c r="AB3" s="10">
         <v>1.5</v>
       </c>
-      <c r="AB3" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="2">
+      <c r="AC3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="2">
         <v>0.8</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="AF3" s="2">
         <v>1.5</v>
       </c>
-      <c r="AF3" s="3">
+      <c r="AG3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="str">
-        <f>E4&amp;" "&amp;C4&amp;" "&amp;F4</f>
+        <f t="shared" si="0"/>
         <v>Swede Fodder General</v>
       </c>
       <c r="B4" s="2">
@@ -1533,11 +1546,11 @@
         <v>217</v>
       </c>
       <c r="K4" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Brassica napus napobrassica</v>
       </c>
       <c r="L4" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>napus napobrassica</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -1561,49 +1574,52 @@
       <c r="S4" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U4" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="U4" s="2">
-        <v>0</v>
-      </c>
-      <c r="V4" s="3">
-        <v>0</v>
-      </c>
-      <c r="W4" s="2">
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
         <v>0.83399999999999996</v>
       </c>
-      <c r="X4" s="2">
+      <c r="Y4" s="2">
         <v>-0.15600000000000003</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Z4" s="3">
         <v>12</v>
       </c>
-      <c r="Z4" s="6">
+      <c r="AA4" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA4" s="10">
+      <c r="AB4" s="10">
         <v>1.2</v>
       </c>
-      <c r="AB4" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="10">
+      <c r="AC4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="10">
         <v>2</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AE4" s="2">
         <v>0.8</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AF4" s="2">
         <v>0.6</v>
       </c>
-      <c r="AF4" s="3">
+      <c r="AG4" s="3">
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="str">
-        <f>E5&amp;" "&amp;C5&amp;" "&amp;F5</f>
+        <f t="shared" si="0"/>
         <v>Rape Fodder General</v>
       </c>
       <c r="B5" s="2">
@@ -1634,11 +1650,11 @@
         <v>28</v>
       </c>
       <c r="K5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Brassica napus napus</v>
       </c>
       <c r="L5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>napus napus</v>
       </c>
       <c r="M5" s="2" t="s">
@@ -1662,49 +1678,52 @@
       <c r="S5" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="T5" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U5" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="U5" s="2">
-        <v>0</v>
-      </c>
-      <c r="V5" s="3">
-        <v>0</v>
-      </c>
-      <c r="W5" s="2">
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
         <v>0.77800000000000002</v>
       </c>
-      <c r="X5" s="2">
+      <c r="Y5" s="2">
         <v>-0.122</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Z5" s="3">
         <v>10</v>
       </c>
-      <c r="Z5" s="6">
+      <c r="AA5" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA5" s="10">
+      <c r="AB5" s="10">
         <v>1.2</v>
       </c>
-      <c r="AB5" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="10">
+      <c r="AC5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="10">
         <v>2</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AE5" s="2">
         <v>0.8</v>
       </c>
-      <c r="AE5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="3">
+      <c r="AF5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="str">
-        <f>E6&amp;" "&amp;C6&amp;" "&amp;F6</f>
+        <f t="shared" si="0"/>
         <v>Kale Fodder General</v>
       </c>
       <c r="B6" s="2">
@@ -1735,11 +1754,11 @@
         <v>209</v>
       </c>
       <c r="K6" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Brassica oleracea acephala</v>
       </c>
       <c r="L6" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>oleracea acephala</v>
       </c>
       <c r="M6" s="2" t="s">
@@ -1763,49 +1782,52 @@
       <c r="S6" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="T6" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U6" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="U6" s="2">
-        <v>0</v>
-      </c>
-      <c r="V6" s="3">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2">
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
         <v>0.57999999999999985</v>
       </c>
-      <c r="X6" s="2">
+      <c r="Y6" s="2">
         <v>-0.32</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Z6" s="3">
         <v>13</v>
       </c>
-      <c r="Z6" s="6">
+      <c r="AA6" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA6" s="10">
+      <c r="AB6" s="10">
         <v>1.2</v>
       </c>
-      <c r="AB6" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="10">
+      <c r="AC6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="10">
         <v>2</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AE6" s="2">
         <v>0.8</v>
       </c>
-      <c r="AE6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="3">
+      <c r="AF6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="str">
-        <f>E7&amp;" "&amp;C7&amp;" "&amp;F7</f>
+        <f t="shared" si="0"/>
         <v>Turnip Fodder Bulb</v>
       </c>
       <c r="B7" s="2">
@@ -1836,11 +1858,11 @@
         <v>31</v>
       </c>
       <c r="K7" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Brassica rapa rapa</v>
       </c>
       <c r="L7" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>rapa rapa</v>
       </c>
       <c r="M7" s="2" t="s">
@@ -1864,49 +1886,52 @@
       <c r="S7" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="T7" s="11" t="s">
+      <c r="T7" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U7" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
-      <c r="V7" s="3">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2">
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
         <v>0.872</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>-0.128</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Z7" s="3">
         <v>10</v>
       </c>
-      <c r="Z7" s="6">
+      <c r="AA7" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA7" s="10">
+      <c r="AB7" s="10">
         <v>1.2</v>
       </c>
-      <c r="AB7" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="10">
+      <c r="AC7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="10">
         <v>2</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>0.8</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>0.6</v>
       </c>
-      <c r="AF7" s="3">
+      <c r="AG7" s="3">
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="str">
-        <f>E8&amp;" "&amp;C8&amp;" "&amp;F8</f>
+        <f t="shared" si="0"/>
         <v>Turnip Fodder Leafy</v>
       </c>
       <c r="B8" s="2">
@@ -1937,11 +1962,11 @@
         <v>205</v>
       </c>
       <c r="K8" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Brassica rapa x napus </v>
       </c>
       <c r="L8" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">rapa x napus </v>
       </c>
       <c r="M8" s="2" t="s">
@@ -1965,49 +1990,52 @@
       <c r="S8" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="T8" s="11" t="s">
+      <c r="T8" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U8" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="U8" s="2">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="2">
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
         <v>0.49</v>
       </c>
-      <c r="X8" s="2">
+      <c r="Y8" s="2">
         <v>-0.21</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>17</v>
       </c>
-      <c r="Z8" s="6">
+      <c r="AA8" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA8" s="10">
+      <c r="AB8" s="10">
         <v>1.2</v>
       </c>
-      <c r="AB8" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="10">
+      <c r="AC8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="10">
         <v>2</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AE8" s="2">
         <v>0.8</v>
       </c>
-      <c r="AE8" s="2">
+      <c r="AF8" s="2">
         <v>1.5</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AG8" s="3">
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="str">
-        <f>E9&amp;" "&amp;C9&amp;" "&amp;F9</f>
+        <f t="shared" si="0"/>
         <v>Barley Fodder General</v>
       </c>
       <c r="B9" s="2">
@@ -2038,11 +2066,11 @@
         <v>205</v>
       </c>
       <c r="K9" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Hordeum vulgure </v>
       </c>
       <c r="L9" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">vulgure </v>
       </c>
       <c r="M9" s="2" t="s">
@@ -2066,49 +2094,52 @@
       <c r="S9" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="T9" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U9" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="U9" s="2">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2">
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
         <v>0.95</v>
       </c>
-      <c r="X9" s="2">
-        <v>0</v>
-      </c>
       <c r="Y9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2">
         <v>80</v>
       </c>
-      <c r="Z9" s="6">
+      <c r="AA9" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA9" s="10">
+      <c r="AB9" s="10">
         <v>1.2</v>
       </c>
-      <c r="AB9" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="2">
+      <c r="AC9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="2">
         <v>0.9</v>
       </c>
-      <c r="AE9" s="2">
+      <c r="AF9" s="2">
         <v>0.5</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="AG9" s="3">
         <v>1.3</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="str">
-        <f>E10&amp;" "&amp;C10&amp;" "&amp;F10</f>
+        <f t="shared" si="0"/>
         <v>Annual ryegrass Fodder General</v>
       </c>
       <c r="B10" s="2">
@@ -2139,11 +2170,11 @@
         <v>205</v>
       </c>
       <c r="K10" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Lolium multiflorum </v>
       </c>
       <c r="L10" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">multiflorum </v>
       </c>
       <c r="M10" s="2" t="s">
@@ -2167,49 +2198,52 @@
       <c r="S10" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="T10" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U10" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="U10" s="2">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-      <c r="W10" s="2">
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2">
         <v>0.95</v>
       </c>
-      <c r="X10" s="2">
-        <v>0</v>
-      </c>
       <c r="Y10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2">
         <v>80</v>
       </c>
-      <c r="Z10" s="6">
+      <c r="AA10" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA10" s="10">
+      <c r="AB10" s="10">
         <v>0.9</v>
       </c>
-      <c r="AB10" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="10">
+      <c r="AC10" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="10">
         <v>1.5</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AE10" s="2">
         <v>0.9</v>
       </c>
-      <c r="AE10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="3">
+      <c r="AF10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="3">
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="str">
-        <f>E11&amp;" "&amp;C11&amp;" "&amp;F11</f>
+        <f t="shared" si="0"/>
         <v>Rye corn Fodder General</v>
       </c>
       <c r="B11" s="2">
@@ -2240,11 +2274,11 @@
         <v>205</v>
       </c>
       <c r="K11" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Secale cereale </v>
       </c>
       <c r="L11" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">cereale </v>
       </c>
       <c r="M11" s="2" t="s">
@@ -2268,49 +2302,52 @@
       <c r="S11" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="T11" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U11" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="U11" s="2">
-        <v>0</v>
-      </c>
-      <c r="V11" s="3">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2">
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="3">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
         <v>0.95</v>
       </c>
-      <c r="X11" s="2">
-        <v>0</v>
-      </c>
       <c r="Y11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2">
         <v>80</v>
       </c>
-      <c r="Z11" s="6">
+      <c r="AA11" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA11" s="10">
+      <c r="AB11" s="10">
         <v>1.5</v>
       </c>
-      <c r="AB11" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="2">
+      <c r="AC11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="2">
         <v>0.9</v>
       </c>
-      <c r="AE11" s="2">
+      <c r="AF11" s="2">
         <v>0.5</v>
       </c>
-      <c r="AF11" s="3">
+      <c r="AG11" s="3">
         <v>1.3</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="str">
-        <f>E12&amp;" "&amp;C12&amp;" "&amp;F12</f>
+        <f t="shared" si="0"/>
         <v>Wheat Fodder General</v>
       </c>
       <c r="B12" s="2">
@@ -2341,11 +2378,11 @@
         <v>205</v>
       </c>
       <c r="K12" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Triticum astevium </v>
       </c>
       <c r="L12" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">astevium </v>
       </c>
       <c r="M12" s="2" t="s">
@@ -2369,49 +2406,52 @@
       <c r="S12" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="T12" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U12" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="U12" s="2">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
-      <c r="W12" s="2">
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2">
         <v>0.95</v>
       </c>
-      <c r="X12" s="2">
-        <v>0</v>
-      </c>
       <c r="Y12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
         <v>80</v>
       </c>
-      <c r="Z12" s="6">
+      <c r="AA12" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA12" s="10">
+      <c r="AB12" s="10">
         <v>1.5</v>
       </c>
-      <c r="AB12" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="2">
+      <c r="AC12" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="2">
         <v>0.9</v>
       </c>
-      <c r="AE12" s="2">
+      <c r="AF12" s="2">
         <v>0.5</v>
       </c>
-      <c r="AF12" s="3">
+      <c r="AG12" s="3">
         <v>1.3</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="str">
-        <f>E13&amp;" "&amp;C13&amp;" "&amp;F13</f>
+        <f t="shared" si="0"/>
         <v>Triticale Fodder General</v>
       </c>
       <c r="B13" s="2">
@@ -2440,11 +2480,11 @@
         <v>205</v>
       </c>
       <c r="K13" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Triticum x Secale  </v>
       </c>
       <c r="L13" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M13" s="2" t="s">
@@ -2468,49 +2508,52 @@
       <c r="S13" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="T13" s="11" t="s">
+      <c r="T13" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U13" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="U13" s="2">
-        <v>0</v>
-      </c>
-      <c r="V13" s="3">
-        <v>0</v>
-      </c>
-      <c r="W13" s="2">
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
         <v>0.95</v>
       </c>
-      <c r="X13" s="2">
-        <v>0</v>
-      </c>
       <c r="Y13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2">
         <v>80</v>
       </c>
-      <c r="Z13" s="6">
+      <c r="AA13" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA13" s="10">
+      <c r="AB13" s="10">
         <v>1.5</v>
       </c>
-      <c r="AB13" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="2">
+      <c r="AC13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="2">
         <v>0.9</v>
       </c>
-      <c r="AE13" s="2">
+      <c r="AF13" s="2">
         <v>0.5</v>
       </c>
-      <c r="AF13" s="3">
+      <c r="AG13" s="3">
         <v>1.3</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="str">
-        <f>E14&amp;" "&amp;C14&amp;" "&amp;F14</f>
+        <f t="shared" si="0"/>
         <v>Maize Fodder General</v>
       </c>
       <c r="B14" s="2">
@@ -2541,11 +2584,11 @@
         <v>205</v>
       </c>
       <c r="K14" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Zea mays </v>
       </c>
       <c r="L14" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">mays </v>
       </c>
       <c r="M14" s="2" t="s">
@@ -2569,49 +2612,52 @@
       <c r="S14" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="T14" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U14" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="U14" s="2">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="2">
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2">
         <v>0.95</v>
       </c>
-      <c r="X14" s="2">
-        <v>0</v>
-      </c>
       <c r="Y14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="2">
         <v>33</v>
       </c>
-      <c r="Z14" s="6">
+      <c r="AA14" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA14" s="10">
+      <c r="AB14" s="10">
         <v>1.5</v>
       </c>
-      <c r="AB14" s="6">
+      <c r="AC14" s="6">
         <v>0.85</v>
       </c>
-      <c r="AC14" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD14" s="2">
+      <c r="AD14" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="2">
         <v>0.9</v>
       </c>
-      <c r="AE14" s="2">
+      <c r="AF14" s="2">
         <v>0.7</v>
       </c>
-      <c r="AF14" s="3">
+      <c r="AG14" s="3">
         <v>1.4</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="str">
-        <f>E15&amp;" "&amp;C15&amp;" "&amp;F15</f>
+        <f t="shared" si="0"/>
         <v>Oat Grain General</v>
       </c>
       <c r="B15" s="2">
@@ -2642,11 +2688,11 @@
         <v>205</v>
       </c>
       <c r="K15" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Avena sativa </v>
       </c>
       <c r="L15" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">sativa </v>
       </c>
       <c r="M15" s="2" t="s">
@@ -2670,49 +2716,52 @@
       <c r="S15" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="T15" s="11" t="s">
+      <c r="T15" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U15" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="U15" s="2">
-        <v>0</v>
-      </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
-      <c r="W15" s="2">
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2">
         <v>0.4</v>
       </c>
-      <c r="X15" s="2">
+      <c r="Y15" s="2">
         <v>0.1</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="Z15" s="2">
         <v>13</v>
       </c>
-      <c r="Z15" s="6">
+      <c r="AA15" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA15" s="10">
+      <c r="AB15" s="10">
         <v>1.5</v>
       </c>
-      <c r="AB15" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD15" s="2">
+      <c r="AC15" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="2">
         <v>0.9</v>
       </c>
-      <c r="AE15" s="2">
+      <c r="AF15" s="2">
         <v>0.5</v>
       </c>
-      <c r="AF15" s="3">
+      <c r="AG15" s="3">
         <v>1.3</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="str">
-        <f>E16&amp;" "&amp;C16&amp;" "&amp;F16</f>
+        <f t="shared" si="0"/>
         <v>Canola Grain General</v>
       </c>
       <c r="B16" s="2">
@@ -2743,11 +2792,11 @@
         <v>28</v>
       </c>
       <c r="K16" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Brassica napus napus</v>
       </c>
       <c r="L16" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>napus napus</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -2771,49 +2820,52 @@
       <c r="S16" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="T16" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U16" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="U16" s="2">
-        <v>0</v>
-      </c>
-      <c r="V16" s="3">
-        <v>0</v>
-      </c>
-      <c r="W16" s="2">
+      <c r="V16" s="2">
+        <v>0</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0</v>
+      </c>
+      <c r="X16" s="2">
         <v>0.27</v>
       </c>
-      <c r="X16" s="2">
+      <c r="Y16" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="Y16" s="2">
+      <c r="Z16" s="2">
         <v>8.9999999999999964</v>
       </c>
-      <c r="Z16" s="6">
+      <c r="AA16" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA16" s="10">
+      <c r="AB16" s="10">
         <v>1.2</v>
       </c>
-      <c r="AB16" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="10">
+      <c r="AC16" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="10">
         <v>2</v>
       </c>
-      <c r="AD16" s="2">
+      <c r="AE16" s="2">
         <v>0.8</v>
       </c>
-      <c r="AE16" s="2">
+      <c r="AF16" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="AF16" s="3">
+      <c r="AG16" s="3">
         <v>3.22</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="str">
-        <f>E17&amp;" "&amp;C17&amp;" "&amp;F17</f>
+        <f t="shared" si="0"/>
         <v>Hemp Grain General</v>
       </c>
       <c r="B17" s="2">
@@ -2844,11 +2896,11 @@
         <v>205</v>
       </c>
       <c r="K17" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Cannabis x </v>
       </c>
       <c r="L17" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">x </v>
       </c>
       <c r="M17" s="2" t="s">
@@ -2872,49 +2924,52 @@
       <c r="S17" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="T17" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U17" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="U17" s="2">
-        <v>0</v>
-      </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
-      <c r="W17" s="2">
+      <c r="V17" s="2">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="2">
         <v>0.1</v>
       </c>
-      <c r="X17" s="2">
+      <c r="Y17" s="2">
         <v>0.05</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="Z17" s="2">
         <v>8.9999999999999964</v>
       </c>
-      <c r="Z17" s="6">
+      <c r="AA17" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA17" s="10">
+      <c r="AB17" s="10">
         <v>1.5</v>
       </c>
-      <c r="AB17" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="2">
+      <c r="AC17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="10">
         <v>1</v>
       </c>
       <c r="AE17" s="2">
         <v>1</v>
       </c>
-      <c r="AF17" s="3">
+      <c r="AF17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="str">
-        <f>E18&amp;" "&amp;C18&amp;" "&amp;F18</f>
+        <f t="shared" si="0"/>
         <v>Chickpea Grain General</v>
       </c>
       <c r="B18" s="2">
@@ -2945,11 +3000,11 @@
         <v>205</v>
       </c>
       <c r="K18" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Cicer arietinum </v>
       </c>
       <c r="L18" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">arietinum </v>
       </c>
       <c r="M18" s="2" t="s">
@@ -2973,49 +3028,52 @@
       <c r="S18" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="T18" s="11" t="s">
+      <c r="T18" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U18" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="U18" s="2">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-      <c r="W18" s="2">
+      <c r="V18" s="2">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="2">
         <v>0.3</v>
       </c>
-      <c r="X18" s="2">
-        <v>0</v>
-      </c>
       <c r="Y18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="2">
         <v>15</v>
       </c>
-      <c r="Z18" s="6">
+      <c r="AA18" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA18" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD18" s="2">
+      <c r="AB18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="2">
         <v>1.5</v>
       </c>
-      <c r="AE18" s="2">
+      <c r="AF18" s="2">
         <v>1.6</v>
       </c>
-      <c r="AF18" s="3">
+      <c r="AG18" s="3">
         <v>4.7</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="str">
-        <f>E19&amp;" "&amp;C19&amp;" "&amp;F19</f>
+        <f t="shared" si="0"/>
         <v>Sunflower Grain General</v>
       </c>
       <c r="B19" s="2">
@@ -3046,11 +3104,11 @@
         <v>205</v>
       </c>
       <c r="K19" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Helianthus annus </v>
       </c>
       <c r="L19" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">annus </v>
       </c>
       <c r="M19" s="2" t="s">
@@ -3074,49 +3132,52 @@
       <c r="S19" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="T19" s="11" t="s">
+      <c r="T19" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U19" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="U19" s="2">
-        <v>0</v>
-      </c>
-      <c r="V19" s="3">
-        <v>0</v>
-      </c>
-      <c r="W19" s="2">
+      <c r="V19" s="2">
+        <v>0</v>
+      </c>
+      <c r="W19" s="3">
+        <v>0</v>
+      </c>
+      <c r="X19" s="2">
         <v>0.3</v>
       </c>
-      <c r="X19" s="2">
+      <c r="Y19" s="2">
         <v>0.1</v>
       </c>
-      <c r="Y19" s="2">
+      <c r="Z19" s="2">
         <v>7.9999999999999964</v>
       </c>
-      <c r="Z19" s="6">
+      <c r="AA19" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA19" s="10">
+      <c r="AB19" s="10">
         <v>1.5</v>
       </c>
-      <c r="AB19" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD19" s="2">
+      <c r="AC19" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="2">
         <v>0.9</v>
       </c>
-      <c r="AE19" s="2">
+      <c r="AF19" s="2">
         <v>1.3</v>
       </c>
-      <c r="AF19" s="3">
+      <c r="AG19" s="3">
         <v>2.4</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="str">
-        <f>E20&amp;" "&amp;C20&amp;" "&amp;F20</f>
+        <f t="shared" si="0"/>
         <v>Barley Grain General</v>
       </c>
       <c r="B20" s="2">
@@ -3147,11 +3208,11 @@
         <v>205</v>
       </c>
       <c r="K20" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Hordeum vulgure </v>
       </c>
       <c r="L20" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">vulgure </v>
       </c>
       <c r="M20" s="2" t="s">
@@ -3175,49 +3236,52 @@
       <c r="S20" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="T20" s="11" t="s">
+      <c r="T20" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U20" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="U20" s="2">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="2">
+      <c r="V20" s="2">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2">
         <v>0.46299999999999997</v>
       </c>
-      <c r="X20" s="2">
+      <c r="Y20" s="2">
         <v>0.1</v>
       </c>
-      <c r="Y20" s="2">
+      <c r="Z20" s="2">
         <v>13</v>
       </c>
-      <c r="Z20" s="6">
+      <c r="AA20" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA20" s="10">
+      <c r="AB20" s="10">
         <v>1.2</v>
       </c>
-      <c r="AB20" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD20" s="2">
+      <c r="AC20" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="2">
         <v>0.9</v>
       </c>
-      <c r="AE20" s="2">
+      <c r="AF20" s="2">
         <v>0.5</v>
       </c>
-      <c r="AF20" s="3">
+      <c r="AG20" s="3">
         <v>1.2</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="str">
-        <f>E21&amp;" "&amp;C21&amp;" "&amp;F21</f>
+        <f t="shared" si="0"/>
         <v>Lentil Grain General</v>
       </c>
       <c r="B21" s="2">
@@ -3248,11 +3312,11 @@
         <v>205</v>
       </c>
       <c r="K21" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Lens culinaris </v>
       </c>
       <c r="L21" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">culinaris </v>
       </c>
       <c r="M21" s="2" t="s">
@@ -3276,49 +3340,52 @@
       <c r="S21" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="T21" s="11" t="s">
+      <c r="T21" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U21" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="U21" s="2">
-        <v>0</v>
-      </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
-      <c r="W21" s="2">
+      <c r="V21" s="2">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="2">
         <v>0.5</v>
       </c>
-      <c r="X21" s="2">
-        <v>0</v>
-      </c>
       <c r="Y21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="2">
         <v>14.000000000000002</v>
       </c>
-      <c r="Z21" s="6">
+      <c r="AA21" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA21" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD21" s="2">
+      <c r="AB21" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="2">
         <v>1.5</v>
       </c>
-      <c r="AE21" s="2">
+      <c r="AF21" s="2">
         <v>1.6</v>
       </c>
-      <c r="AF21" s="3">
+      <c r="AG21" s="3">
         <v>3.5</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="str">
-        <f>E22&amp;" "&amp;C22&amp;" "&amp;F22</f>
+        <f t="shared" si="0"/>
         <v>Linseed Grain General</v>
       </c>
       <c r="B22" s="2">
@@ -3349,11 +3416,11 @@
         <v>205</v>
       </c>
       <c r="K22" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Linum usitatissimum </v>
       </c>
       <c r="L22" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">usitatissimum </v>
       </c>
       <c r="M22" s="2" t="s">
@@ -3377,49 +3444,52 @@
       <c r="S22" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="T22" s="11" t="s">
+      <c r="T22" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U22" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="U22" s="2">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="2">
+      <c r="V22" s="2">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="2">
         <v>0.20833333333333334</v>
       </c>
-      <c r="X22" s="2">
-        <v>0</v>
-      </c>
       <c r="Y22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="2">
         <v>8.9999999999999964</v>
       </c>
-      <c r="Z22" s="6">
+      <c r="AA22" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA22" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="2">
+      <c r="AB22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="10">
         <v>1</v>
       </c>
       <c r="AE22" s="2">
         <v>1</v>
       </c>
-      <c r="AF22" s="3">
+      <c r="AF22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="3">
         <v>4.3</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="str">
-        <f>E23&amp;" "&amp;C23&amp;" "&amp;F23</f>
+        <f t="shared" si="0"/>
         <v>Bean Grain General</v>
       </c>
       <c r="B23" s="2">
@@ -3450,11 +3520,11 @@
         <v>205</v>
       </c>
       <c r="K23" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Phaseolus vulgaris </v>
       </c>
       <c r="L23" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">vulgaris </v>
       </c>
       <c r="M23" s="2" t="s">
@@ -3478,49 +3548,52 @@
       <c r="S23" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="T23" s="11" t="s">
+      <c r="T23" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U23" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="U23" s="2">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
-      <c r="W23" s="2">
+      <c r="V23" s="2">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="2">
         <v>0.5</v>
       </c>
-      <c r="X23" s="2">
-        <v>0</v>
-      </c>
       <c r="Y23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="2">
         <v>14.000000000000002</v>
       </c>
-      <c r="Z23" s="6">
+      <c r="AA23" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA23" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC23" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD23" s="2">
+      <c r="AB23" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="2">
         <v>1.5</v>
       </c>
-      <c r="AE23" s="2">
+      <c r="AF23" s="2">
         <v>1.6</v>
       </c>
-      <c r="AF23" s="3">
+      <c r="AG23" s="3">
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="str">
-        <f>E24&amp;" "&amp;C24&amp;" "&amp;F24</f>
+        <f t="shared" si="0"/>
         <v>Pea Grain General</v>
       </c>
       <c r="B24" s="2">
@@ -3551,11 +3624,11 @@
         <v>205</v>
       </c>
       <c r="K24" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Pisum sativum </v>
       </c>
       <c r="L24" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">sativum </v>
       </c>
       <c r="M24" s="2" t="s">
@@ -3579,49 +3652,52 @@
       <c r="S24" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="T24" s="11" t="s">
+      <c r="T24" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U24" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="U24" s="2">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-      <c r="W24" s="2">
+      <c r="V24" s="2">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="2">
         <v>0.3</v>
       </c>
-      <c r="X24" s="2">
-        <v>0</v>
-      </c>
       <c r="Y24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="2">
         <v>14.000000000000002</v>
       </c>
-      <c r="Z24" s="6">
+      <c r="AA24" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA24" s="10">
+      <c r="AB24" s="10">
         <v>0.7</v>
       </c>
-      <c r="AB24" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD24" s="2">
+      <c r="AC24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="2">
         <v>1.5</v>
       </c>
-      <c r="AE24" s="2">
+      <c r="AF24" s="2">
         <v>1.6</v>
       </c>
-      <c r="AF24" s="3">
+      <c r="AG24" s="3">
         <v>4.7</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="str">
-        <f>E25&amp;" "&amp;C25&amp;" "&amp;F25</f>
+        <f t="shared" si="0"/>
         <v>Wheat Grain Breed</v>
       </c>
       <c r="B25" s="2">
@@ -3652,11 +3728,11 @@
         <v>205</v>
       </c>
       <c r="K25" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Triticum astevium </v>
       </c>
       <c r="L25" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">astevium </v>
       </c>
       <c r="M25" s="2" t="s">
@@ -3680,49 +3756,52 @@
       <c r="S25" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="T25" s="11" t="s">
+      <c r="T25" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U25" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="U25" s="2">
-        <v>0</v>
-      </c>
-      <c r="V25" s="3">
-        <v>0</v>
-      </c>
-      <c r="W25" s="2">
+      <c r="V25" s="2">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="2">
         <v>0.41170000000000001</v>
       </c>
-      <c r="X25" s="2">
+      <c r="Y25" s="2">
         <v>0.1</v>
       </c>
-      <c r="Y25" s="2">
+      <c r="Z25" s="2">
         <v>13</v>
       </c>
-      <c r="Z25" s="6">
+      <c r="AA25" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA25" s="10">
+      <c r="AB25" s="10">
         <v>1.5</v>
       </c>
-      <c r="AB25" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD25" s="2">
+      <c r="AC25" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="2">
         <v>0.9</v>
       </c>
-      <c r="AE25" s="2">
+      <c r="AF25" s="2">
         <v>0.5</v>
       </c>
-      <c r="AF25" s="3">
+      <c r="AG25" s="3">
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="str">
-        <f>E26&amp;" "&amp;C26&amp;" "&amp;F26</f>
+        <f t="shared" si="0"/>
         <v>Wheat Grain Feed</v>
       </c>
       <c r="B26" s="2">
@@ -3753,11 +3832,11 @@
         <v>205</v>
       </c>
       <c r="K26" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Triticum astevium </v>
       </c>
       <c r="L26" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">astevium </v>
       </c>
       <c r="M26" s="2" t="s">
@@ -3781,49 +3860,52 @@
       <c r="S26" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="T26" s="11" t="s">
+      <c r="T26" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U26" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="U26" s="2">
-        <v>0</v>
-      </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
-      <c r="W26" s="2">
+      <c r="V26" s="2">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="2">
         <v>0.41170000000000001</v>
       </c>
-      <c r="X26" s="2">
+      <c r="Y26" s="2">
         <v>0.1</v>
       </c>
-      <c r="Y26" s="2">
+      <c r="Z26" s="2">
         <v>13</v>
       </c>
-      <c r="Z26" s="6">
+      <c r="AA26" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA26" s="10">
+      <c r="AB26" s="10">
         <v>1.5</v>
       </c>
-      <c r="AB26" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC26" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD26" s="2">
+      <c r="AC26" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="2">
         <v>0.9</v>
       </c>
-      <c r="AE26" s="2">
+      <c r="AF26" s="2">
         <v>0.5</v>
       </c>
-      <c r="AF26" s="3">
+      <c r="AG26" s="3">
         <v>1.2</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="str">
-        <f>E27&amp;" "&amp;C27&amp;" "&amp;F27</f>
+        <f t="shared" si="0"/>
         <v>Maize Grain General</v>
       </c>
       <c r="B27" s="2">
@@ -3854,11 +3936,11 @@
         <v>205</v>
       </c>
       <c r="K27" s="5" t="str">
-        <f t="shared" ref="K27:K30" si="2">H27&amp;" "&amp;I27&amp;" "&amp;J27</f>
+        <f t="shared" ref="K27:K30" si="3">H27&amp;" "&amp;I27&amp;" "&amp;J27</f>
         <v xml:space="preserve">Zea mays </v>
       </c>
       <c r="L27" s="5" t="str">
-        <f t="shared" ref="L27:L30" si="3">I27&amp;" "&amp;J27</f>
+        <f t="shared" ref="L27:L30" si="4">I27&amp;" "&amp;J27</f>
         <v xml:space="preserve">mays </v>
       </c>
       <c r="M27" s="2" t="s">
@@ -3882,49 +3964,52 @@
       <c r="S27" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="T27" s="11" t="s">
+      <c r="T27" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U27" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="U27" s="2">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-      <c r="W27" s="2">
+      <c r="V27" s="2">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="2">
         <v>0.5</v>
       </c>
-      <c r="X27" s="2">
-        <v>0</v>
-      </c>
       <c r="Y27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="2">
         <v>13</v>
       </c>
-      <c r="Z27" s="6">
+      <c r="AA27" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA27" s="10">
+      <c r="AB27" s="10">
         <v>1.5</v>
       </c>
-      <c r="AB27" s="6">
+      <c r="AC27" s="6">
         <v>0.85</v>
       </c>
-      <c r="AC27" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD27" s="2">
+      <c r="AD27" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="2">
         <v>0.9</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>0.7</v>
       </c>
-      <c r="AF27" s="3">
+      <c r="AG27" s="3">
         <v>1.4</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="str">
-        <f>E28&amp;" "&amp;C28&amp;" "&amp;F28</f>
+        <f t="shared" si="0"/>
         <v>Red beet Seed General</v>
       </c>
       <c r="B28" s="2">
@@ -3955,11 +4040,11 @@
         <v>207</v>
       </c>
       <c r="K28" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Beta vulgaris conditiva</v>
       </c>
       <c r="L28" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>vulgaris conditiva</v>
       </c>
       <c r="M28" s="2" t="s">
@@ -3983,49 +4068,52 @@
       <c r="S28" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="T28" s="2" t="s">
+      <c r="T28" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U28" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U28" s="2">
+      <c r="V28" s="2">
         <v>15</v>
       </c>
-      <c r="V28" s="3">
-        <v>0</v>
-      </c>
-      <c r="W28" s="2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="2">
         <v>0.17</v>
       </c>
-      <c r="X28" s="2">
+      <c r="Y28" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Y28" s="2">
+      <c r="Z28" s="2">
         <v>15.000000000000002</v>
       </c>
-      <c r="Z28" s="6">
+      <c r="AA28" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA28" s="10">
+      <c r="AB28" s="10">
         <v>1.5</v>
       </c>
-      <c r="AB28" s="6">
+      <c r="AC28" s="6">
         <v>0.85</v>
       </c>
-      <c r="AC28" s="10">
+      <c r="AD28" s="10">
         <v>0.8</v>
       </c>
-      <c r="AD28" s="2">
+      <c r="AE28" s="2">
         <v>0.8</v>
       </c>
-      <c r="AE28" s="2">
+      <c r="AF28" s="2">
         <v>1.8</v>
       </c>
-      <c r="AF28" s="3">
+      <c r="AG28" s="3">
         <v>2.1</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="str">
-        <f>E29&amp;" "&amp;C29&amp;" "&amp;F29</f>
+        <f t="shared" si="0"/>
         <v>Rape Seed General</v>
       </c>
       <c r="B29" s="2">
@@ -4056,11 +4144,11 @@
         <v>28</v>
       </c>
       <c r="K29" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Brassica napus napus</v>
       </c>
       <c r="L29" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>napus napus</v>
       </c>
       <c r="M29" s="2" t="s">
@@ -4084,49 +4172,52 @@
       <c r="S29" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="T29" s="2" t="s">
+      <c r="T29" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U29" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U29" s="2">
+      <c r="V29" s="2">
         <v>3</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="2">
         <v>0.33</v>
       </c>
-      <c r="X29" s="2">
+      <c r="Y29" s="2">
         <v>0.08</v>
       </c>
-      <c r="Y29" s="2">
+      <c r="Z29" s="2">
         <v>9.9999999999999982</v>
       </c>
-      <c r="Z29" s="6">
+      <c r="AA29" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA29" s="10">
+      <c r="AB29" s="10">
         <v>1.2</v>
       </c>
-      <c r="AB29" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC29" s="10">
+      <c r="AC29" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="10">
         <v>1.6</v>
       </c>
-      <c r="AD29" s="2">
+      <c r="AE29" s="2">
         <v>0.8</v>
       </c>
-      <c r="AE29" s="2">
+      <c r="AF29" s="2">
         <v>1.8</v>
       </c>
-      <c r="AF29" s="3">
+      <c r="AG29" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="str">
-        <f>E30&amp;" "&amp;C30&amp;" "&amp;F30</f>
+        <f t="shared" si="0"/>
         <v>Pak choi Seed General</v>
       </c>
       <c r="B30" s="2">
@@ -4157,11 +4248,11 @@
         <v>101</v>
       </c>
       <c r="K30" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Brassica rapa chinensis</v>
       </c>
       <c r="L30" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>rapa chinensis</v>
       </c>
       <c r="M30" s="2" t="s">
@@ -4185,49 +4276,52 @@
       <c r="S30" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="T30" s="2" t="s">
+      <c r="T30" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U30" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U30" s="2">
-        <v>0</v>
-      </c>
-      <c r="V30" s="3">
-        <v>0</v>
-      </c>
-      <c r="W30" s="2">
+      <c r="V30" s="2">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="2">
         <v>0.245</v>
       </c>
-      <c r="X30" s="2">
+      <c r="Y30" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Y30" s="2">
+      <c r="Z30" s="2">
         <v>7.9999999999999964</v>
       </c>
-      <c r="Z30" s="6">
+      <c r="AA30" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA30" s="10">
+      <c r="AB30" s="10">
         <v>1.2</v>
       </c>
-      <c r="AB30" s="6">
+      <c r="AC30" s="6">
         <v>0.85</v>
       </c>
-      <c r="AC30" s="10">
+      <c r="AD30" s="10">
         <v>1.5</v>
       </c>
-      <c r="AD30" s="2">
+      <c r="AE30" s="2">
         <v>0.8</v>
       </c>
-      <c r="AE30" s="2">
+      <c r="AF30" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AF30" s="3">
+      <c r="AG30" s="3">
         <v>3.2</v>
       </c>
     </row>
-    <row r="31" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="str">
-        <f>E31&amp;" "&amp;C31&amp;" "&amp;F31</f>
+        <f t="shared" si="0"/>
         <v>Cocksfoot Seed General</v>
       </c>
       <c r="B31" s="2">
@@ -4258,11 +4352,11 @@
         <v>205</v>
       </c>
       <c r="K31" s="5" t="str">
-        <f t="shared" ref="K31:K38" si="4">H31&amp;" "&amp;I31&amp;" "&amp;J31</f>
+        <f t="shared" ref="K31:K38" si="5">H31&amp;" "&amp;I31&amp;" "&amp;J31</f>
         <v xml:space="preserve">Dactylus glomerata </v>
       </c>
       <c r="L31" s="5" t="str">
-        <f t="shared" ref="L31:L38" si="5">I31&amp;" "&amp;J31</f>
+        <f t="shared" ref="L31:L38" si="6">I31&amp;" "&amp;J31</f>
         <v xml:space="preserve">glomerata </v>
       </c>
       <c r="M31" s="2" t="s">
@@ -4286,49 +4380,52 @@
       <c r="S31" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="T31" s="2" t="s">
+      <c r="T31" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U31" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U31" s="2">
+      <c r="V31" s="2">
         <v>9.9999999999999982</v>
       </c>
-      <c r="V31" s="3">
-        <v>0</v>
-      </c>
-      <c r="W31" s="2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="2">
         <v>0.09</v>
       </c>
-      <c r="X31" s="2">
+      <c r="Y31" s="2">
         <v>0.03</v>
       </c>
-      <c r="Y31" s="9">
+      <c r="Z31" s="9">
         <v>15.000000000000002</v>
       </c>
-      <c r="Z31" s="6">
+      <c r="AA31" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA31" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="10">
+      <c r="AB31" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="10">
         <v>0.8</v>
       </c>
-      <c r="AD31" s="2">
+      <c r="AE31" s="2">
         <v>0.9</v>
       </c>
-      <c r="AE31" s="4">
+      <c r="AF31" s="4">
         <v>1.2</v>
       </c>
-      <c r="AF31" s="7">
+      <c r="AG31" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="str">
-        <f>E32&amp;" "&amp;C32&amp;" "&amp;F32</f>
+        <f t="shared" si="0"/>
         <v>Carrot Seed General</v>
       </c>
       <c r="B32" s="2">
@@ -4359,11 +4456,11 @@
         <v>205</v>
       </c>
       <c r="K32" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Daucus carota </v>
       </c>
       <c r="L32" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">carota </v>
       </c>
       <c r="M32" s="2" t="s">
@@ -4387,49 +4484,52 @@
       <c r="S32" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="T32" s="2" t="s">
+      <c r="T32" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U32" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U32" s="2">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="2">
+      <c r="V32" s="2">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="2">
         <v>0.12</v>
       </c>
-      <c r="X32" s="2">
+      <c r="Y32" s="2">
         <v>0.08</v>
       </c>
-      <c r="Y32" s="9">
+      <c r="Z32" s="9">
         <v>15.000000000000002</v>
       </c>
-      <c r="Z32" s="6">
+      <c r="AA32" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA32" s="10">
+      <c r="AB32" s="10">
         <v>1.2</v>
       </c>
-      <c r="AB32" s="6">
+      <c r="AC32" s="6">
         <v>0.85</v>
       </c>
-      <c r="AC32" s="10">
+      <c r="AD32" s="10">
         <v>0.7</v>
       </c>
-      <c r="AD32" s="2">
+      <c r="AE32" s="2">
         <v>0.9</v>
       </c>
-      <c r="AE32" s="4">
+      <c r="AF32" s="4">
         <v>1.2</v>
       </c>
-      <c r="AF32" s="7">
+      <c r="AG32" s="7">
         <v>3.4</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="str">
-        <f>E33&amp;" "&amp;C33&amp;" "&amp;F33</f>
+        <f t="shared" si="0"/>
         <v>Ryegrass Seed General</v>
       </c>
       <c r="B33" s="2">
@@ -4460,11 +4560,11 @@
         <v>205</v>
       </c>
       <c r="K33" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Lolium perenne </v>
       </c>
       <c r="L33" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">perenne </v>
       </c>
       <c r="M33" s="2" t="s">
@@ -4488,49 +4588,52 @@
       <c r="S33" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="T33" s="2" t="s">
+      <c r="T33" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U33" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U33" s="2">
+      <c r="V33" s="2">
         <v>15</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
-      <c r="W33" s="2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="2">
         <v>0.20350000000000001</v>
       </c>
-      <c r="X33" s="2">
+      <c r="Y33" s="2">
         <v>0.10349999999999998</v>
       </c>
-      <c r="Y33" s="2">
+      <c r="Z33" s="2">
         <v>14.000000000000002</v>
       </c>
-      <c r="Z33" s="6">
+      <c r="AA33" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA33" s="10">
+      <c r="AB33" s="10">
         <v>0.9</v>
       </c>
-      <c r="AB33" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC33" s="10">
+      <c r="AC33" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="10">
         <v>1.5</v>
       </c>
-      <c r="AD33" s="2">
+      <c r="AE33" s="2">
         <v>0.9</v>
       </c>
-      <c r="AE33" s="2">
+      <c r="AF33" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AF33" s="3">
+      <c r="AG33" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="str">
-        <f>E34&amp;" "&amp;C34&amp;" "&amp;F34</f>
+        <f t="shared" ref="A34:A70" si="7">E34&amp;" "&amp;C34&amp;" "&amp;F34</f>
         <v>Radish Seed Open pollinated</v>
       </c>
       <c r="B34" s="2">
@@ -4561,11 +4664,11 @@
         <v>44</v>
       </c>
       <c r="K34" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Raphanus raphanistrum sativa</v>
       </c>
       <c r="L34" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>raphanistrum sativa</v>
       </c>
       <c r="M34" s="2" t="s">
@@ -4589,49 +4692,52 @@
       <c r="S34" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="T34" s="2" t="s">
+      <c r="T34" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U34" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U34" s="2">
+      <c r="V34" s="2">
         <v>30</v>
       </c>
-      <c r="V34" s="3">
-        <v>0</v>
-      </c>
-      <c r="W34" s="2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="2">
         <v>0.17800000000000002</v>
       </c>
-      <c r="X34" s="2">
+      <c r="Y34" s="2">
         <v>0.10800000000000001</v>
       </c>
-      <c r="Y34" s="2">
+      <c r="Z34" s="2">
         <v>9.9999999999999982</v>
       </c>
-      <c r="Z34" s="6">
+      <c r="AA34" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA34" s="10">
+      <c r="AB34" s="10">
         <v>1.2</v>
       </c>
-      <c r="AB34" s="6">
+      <c r="AC34" s="6">
         <v>0.85</v>
       </c>
-      <c r="AC34" s="10">
+      <c r="AD34" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AD34" s="2">
+      <c r="AE34" s="2">
         <v>0.8</v>
       </c>
-      <c r="AE34" s="2">
+      <c r="AF34" s="2">
         <v>1.6</v>
       </c>
-      <c r="AF34" s="3">
+      <c r="AG34" s="3">
         <v>4.5</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="str">
-        <f>E35&amp;" "&amp;C35&amp;" "&amp;F35</f>
+        <f t="shared" si="7"/>
         <v>White clover Seed General</v>
       </c>
       <c r="B35" s="2">
@@ -4662,11 +4768,11 @@
         <v>205</v>
       </c>
       <c r="K35" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Trifolium repens </v>
       </c>
       <c r="L35" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">repens </v>
       </c>
       <c r="M35" s="2" t="s">
@@ -4690,49 +4796,52 @@
       <c r="S35" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="T35" s="2" t="s">
+      <c r="T35" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U35" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U35" s="2">
+      <c r="V35" s="2">
         <v>20</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
-      <c r="W35" s="2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="2">
         <v>0.15</v>
       </c>
-      <c r="X35" s="2">
+      <c r="Y35" s="2">
         <v>0.09</v>
       </c>
-      <c r="Y35" s="2">
+      <c r="Z35" s="2">
         <v>14.000000000000002</v>
       </c>
-      <c r="Z35" s="6">
+      <c r="AA35" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA35" s="10">
+      <c r="AB35" s="10">
         <v>0.9</v>
       </c>
-      <c r="AB35" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC35" s="10">
+      <c r="AC35" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="10">
         <v>0.6</v>
       </c>
-      <c r="AD35" s="2">
+      <c r="AE35" s="2">
         <v>1.5</v>
       </c>
-      <c r="AE35" s="2">
+      <c r="AF35" s="2">
         <v>4</v>
       </c>
-      <c r="AF35" s="3">
+      <c r="AG35" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="str">
-        <f>E36&amp;" "&amp;C36&amp;" "&amp;F36</f>
+        <f t="shared" si="7"/>
         <v>Leek Vegetable General</v>
       </c>
       <c r="B36" s="2">
@@ -4763,11 +4872,11 @@
         <v>205</v>
       </c>
       <c r="K36" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Allium ampeloprasum </v>
       </c>
       <c r="L36" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">ampeloprasum </v>
       </c>
       <c r="M36" s="2" t="s">
@@ -4791,49 +4900,52 @@
       <c r="S36" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T36" s="2" t="s">
+      <c r="T36" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U36" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U36" s="2">
-        <v>0</v>
-      </c>
-      <c r="V36" s="3">
-        <v>0</v>
-      </c>
-      <c r="W36" s="2">
+      <c r="V36" s="2">
+        <v>0</v>
+      </c>
+      <c r="W36" s="3">
+        <v>0</v>
+      </c>
+      <c r="X36" s="2">
         <v>0.9</v>
       </c>
-      <c r="X36" s="2">
-        <v>0</v>
-      </c>
       <c r="Y36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="2">
         <v>89</v>
       </c>
-      <c r="Z36" s="6">
+      <c r="AA36" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA36" s="10">
+      <c r="AB36" s="10">
         <v>0.6</v>
       </c>
-      <c r="AB36" s="6">
+      <c r="AC36" s="6">
         <v>0.75</v>
       </c>
-      <c r="AC36" s="10">
+      <c r="AD36" s="10">
         <v>0.6</v>
       </c>
-      <c r="AD36" s="2">
-        <v>1</v>
-      </c>
       <c r="AE36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="2">
         <v>3.5</v>
       </c>
-      <c r="AF36" s="3">
+      <c r="AG36" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="str">
-        <f>E37&amp;" "&amp;C37&amp;" "&amp;F37</f>
+        <f t="shared" si="7"/>
         <v>Onion Vegetable Brown</v>
       </c>
       <c r="B37" s="2">
@@ -4864,11 +4976,11 @@
         <v>205</v>
       </c>
       <c r="K37" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Allium cepa </v>
       </c>
       <c r="L37" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">cepa </v>
       </c>
       <c r="M37" s="2" t="s">
@@ -4892,49 +5004,52 @@
       <c r="S37" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T37" s="2" t="s">
+      <c r="T37" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U37" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U37" s="2">
-        <v>0</v>
-      </c>
-      <c r="V37" s="3">
-        <v>0</v>
-      </c>
-      <c r="W37" s="2">
+      <c r="V37" s="2">
+        <v>0</v>
+      </c>
+      <c r="W37" s="3">
+        <v>0</v>
+      </c>
+      <c r="X37" s="2">
         <v>0.8</v>
       </c>
-      <c r="X37" s="2">
-        <v>0</v>
-      </c>
       <c r="Y37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="2">
         <v>89</v>
       </c>
-      <c r="Z37" s="6">
+      <c r="AA37" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA37" s="10">
+      <c r="AB37" s="10">
         <v>0.6</v>
       </c>
-      <c r="AB37" s="6">
+      <c r="AC37" s="6">
         <v>0.8</v>
       </c>
-      <c r="AC37" s="10">
+      <c r="AD37" s="10">
         <v>0.6</v>
       </c>
-      <c r="AD37" s="2">
-        <v>1</v>
-      </c>
       <c r="AE37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="2">
         <v>2</v>
       </c>
-      <c r="AF37" s="3">
+      <c r="AG37" s="3">
         <v>1.4</v>
       </c>
     </row>
-    <row r="38" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="str">
-        <f>E38&amp;" "&amp;C38&amp;" "&amp;F38</f>
+        <f t="shared" si="7"/>
         <v>Onion Vegetable Red</v>
       </c>
       <c r="B38" s="2">
@@ -4965,11 +5080,11 @@
         <v>205</v>
       </c>
       <c r="K38" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Allium cepa </v>
       </c>
       <c r="L38" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">cepa </v>
       </c>
       <c r="M38" s="2" t="s">
@@ -4993,49 +5108,52 @@
       <c r="S38" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T38" s="2" t="s">
+      <c r="T38" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U38" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U38" s="2">
-        <v>0</v>
-      </c>
-      <c r="V38" s="3">
-        <v>0</v>
-      </c>
-      <c r="W38" s="2">
+      <c r="V38" s="2">
+        <v>0</v>
+      </c>
+      <c r="W38" s="3">
+        <v>0</v>
+      </c>
+      <c r="X38" s="2">
         <v>0.8</v>
       </c>
-      <c r="X38" s="2">
-        <v>0</v>
-      </c>
       <c r="Y38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="2">
         <v>90</v>
       </c>
-      <c r="Z38" s="6">
+      <c r="AA38" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA38" s="10">
+      <c r="AB38" s="10">
         <v>0.6</v>
       </c>
-      <c r="AB38" s="6">
+      <c r="AC38" s="6">
         <v>0.8</v>
       </c>
-      <c r="AC38" s="10">
+      <c r="AD38" s="10">
         <v>0.6</v>
       </c>
-      <c r="AD38" s="2">
-        <v>1</v>
-      </c>
       <c r="AE38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="2">
         <v>2</v>
       </c>
-      <c r="AF38" s="3">
+      <c r="AG38" s="3">
         <v>1.4</v>
       </c>
     </row>
-    <row r="39" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="str">
-        <f>E39&amp;" "&amp;C39&amp;" "&amp;F39</f>
+        <f t="shared" si="7"/>
         <v>Onion Vegetable Shallot</v>
       </c>
       <c r="B39" s="2">
@@ -5066,11 +5184,11 @@
         <v>205</v>
       </c>
       <c r="K39" s="5" t="str">
-        <f t="shared" ref="K39:K70" si="6">H39&amp;" "&amp;I39&amp;" "&amp;J39</f>
+        <f t="shared" ref="K39:K70" si="8">H39&amp;" "&amp;I39&amp;" "&amp;J39</f>
         <v xml:space="preserve">Allium cepa </v>
       </c>
       <c r="L39" s="5" t="str">
-        <f t="shared" ref="L39:L70" si="7">I39&amp;" "&amp;J39</f>
+        <f t="shared" ref="L39:L70" si="9">I39&amp;" "&amp;J39</f>
         <v xml:space="preserve">cepa </v>
       </c>
       <c r="M39" s="2" t="s">
@@ -5094,49 +5212,52 @@
       <c r="S39" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T39" s="2" t="s">
+      <c r="T39" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U39" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U39" s="2">
-        <v>0</v>
-      </c>
-      <c r="V39" s="3">
-        <v>0</v>
-      </c>
-      <c r="W39" s="2">
+      <c r="V39" s="2">
+        <v>0</v>
+      </c>
+      <c r="W39" s="3">
+        <v>0</v>
+      </c>
+      <c r="X39" s="2">
         <v>0.8</v>
       </c>
-      <c r="X39" s="2">
-        <v>0</v>
-      </c>
       <c r="Y39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="2">
         <v>90</v>
       </c>
-      <c r="Z39" s="6">
+      <c r="AA39" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA39" s="10">
+      <c r="AB39" s="10">
         <v>0.6</v>
       </c>
-      <c r="AB39" s="6">
+      <c r="AC39" s="6">
         <v>0.8</v>
       </c>
-      <c r="AC39" s="10">
+      <c r="AD39" s="10">
         <v>0.6</v>
       </c>
-      <c r="AD39" s="2">
-        <v>1</v>
-      </c>
       <c r="AE39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF39" s="2">
         <v>2</v>
       </c>
-      <c r="AF39" s="3">
+      <c r="AG39" s="3">
         <v>1.4</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="str">
-        <f>E40&amp;" "&amp;C40&amp;" "&amp;F40</f>
+        <f t="shared" si="7"/>
         <v>Spring onion Vegetable General</v>
       </c>
       <c r="B40" s="2">
@@ -5167,11 +5288,11 @@
         <v>205</v>
       </c>
       <c r="K40" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">Allium fistulosum </v>
       </c>
       <c r="L40" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">fistulosum </v>
       </c>
       <c r="M40" s="2" t="s">
@@ -5195,49 +5316,52 @@
       <c r="S40" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T40" s="2" t="s">
+      <c r="T40" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U40" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U40" s="2">
-        <v>0</v>
-      </c>
-      <c r="V40" s="3">
-        <v>0</v>
-      </c>
-      <c r="W40" s="2">
-        <v>1</v>
+      <c r="V40" s="2">
+        <v>0</v>
+      </c>
+      <c r="W40" s="3">
+        <v>0</v>
       </c>
       <c r="X40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="2">
         <v>95</v>
       </c>
-      <c r="Z40" s="6">
+      <c r="AA40" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA40" s="10">
+      <c r="AB40" s="10">
         <v>0.6</v>
       </c>
-      <c r="AB40" s="6">
+      <c r="AC40" s="6">
         <v>0.75</v>
       </c>
-      <c r="AC40" s="10">
+      <c r="AD40" s="10">
         <v>0.6</v>
       </c>
-      <c r="AD40" s="2">
-        <v>1</v>
-      </c>
       <c r="AE40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AF40" s="3">
+      <c r="AG40" s="3">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="str">
-        <f>E41&amp;" "&amp;C41&amp;" "&amp;F41</f>
+        <f t="shared" si="7"/>
         <v>Garlic Vegetable General</v>
       </c>
       <c r="B41" s="2">
@@ -5268,11 +5392,11 @@
         <v>205</v>
       </c>
       <c r="K41" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">Allium sativum </v>
       </c>
       <c r="L41" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">sativum </v>
       </c>
       <c r="M41" s="2" t="s">
@@ -5296,49 +5420,52 @@
       <c r="S41" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T41" s="2" t="s">
+      <c r="T41" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U41" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U41" s="2">
-        <v>0</v>
-      </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
-      <c r="W41" s="2">
+      <c r="V41" s="2">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="2">
         <v>0.8</v>
       </c>
-      <c r="X41" s="2">
-        <v>0</v>
-      </c>
       <c r="Y41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="2">
         <v>90</v>
       </c>
-      <c r="Z41" s="6">
+      <c r="AA41" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA41" s="10">
+      <c r="AB41" s="10">
         <v>0.6</v>
       </c>
-      <c r="AB41" s="6">
+      <c r="AC41" s="6">
         <v>0.7</v>
       </c>
-      <c r="AC41" s="10">
+      <c r="AD41" s="10">
         <v>0.6</v>
       </c>
-      <c r="AD41" s="2">
-        <v>1</v>
-      </c>
       <c r="AE41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="2">
         <v>2</v>
       </c>
-      <c r="AF41" s="3">
+      <c r="AG41" s="3">
         <v>1.4</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="str">
-        <f>E42&amp;" "&amp;C42&amp;" "&amp;F42</f>
+        <f t="shared" si="7"/>
         <v>Celery Vegetable General</v>
       </c>
       <c r="B42" s="2">
@@ -5369,11 +5496,11 @@
         <v>205</v>
       </c>
       <c r="K42" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">Apium graveolens </v>
       </c>
       <c r="L42" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">graveolens </v>
       </c>
       <c r="M42" s="2" t="s">
@@ -5397,49 +5524,52 @@
       <c r="S42" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T42" s="2" t="s">
+      <c r="T42" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U42" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U42" s="2">
-        <v>0</v>
-      </c>
-      <c r="V42" s="3">
-        <v>0</v>
-      </c>
-      <c r="W42" s="2">
+      <c r="V42" s="2">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="2">
         <v>0.85</v>
       </c>
-      <c r="X42" s="2">
-        <v>0</v>
-      </c>
       <c r="Y42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="2">
         <v>88</v>
       </c>
-      <c r="Z42" s="6">
+      <c r="AA42" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA42" s="10">
+      <c r="AB42" s="10">
         <v>1.2</v>
       </c>
-      <c r="AB42" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC42" s="10">
+      <c r="AC42" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD42" s="10">
         <v>0.8</v>
       </c>
-      <c r="AD42" s="2">
+      <c r="AE42" s="2">
         <v>0.9</v>
       </c>
-      <c r="AE42" s="2">
+      <c r="AF42" s="2">
         <v>2.5</v>
       </c>
-      <c r="AF42" s="3">
+      <c r="AG42" s="3">
         <v>2.5</v>
       </c>
     </row>
-    <row r="43" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="str">
-        <f>E43&amp;" "&amp;C43&amp;" "&amp;F43</f>
+        <f t="shared" si="7"/>
         <v>Silver beet Vegetable General</v>
       </c>
       <c r="B43" s="2">
@@ -5470,11 +5600,11 @@
         <v>206</v>
       </c>
       <c r="K43" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Beta vulgaris cicla</v>
       </c>
       <c r="L43" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>vulgaris cicla</v>
       </c>
       <c r="M43" s="2" t="s">
@@ -5498,50 +5628,53 @@
       <c r="S43" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T43" s="2" t="s">
+      <c r="T43" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U43" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U43" s="2">
-        <v>0</v>
-      </c>
-      <c r="V43" s="3">
-        <v>0</v>
-      </c>
-      <c r="W43" s="2">
+      <c r="V43" s="2">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="2">
         <v>0.8</v>
       </c>
-      <c r="X43" s="2">
-        <v>0</v>
-      </c>
       <c r="Y43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="2">
         <v>93</v>
       </c>
-      <c r="Z43" s="6">
+      <c r="AA43" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA43" s="10">
+      <c r="AB43" s="10">
         <v>1.5</v>
       </c>
-      <c r="AB43" s="6">
+      <c r="AC43" s="6">
         <f>0.95*1.2/1.5</f>
         <v>0.7599999999999999</v>
       </c>
-      <c r="AC43" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD43" s="2">
+      <c r="AD43" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="2">
         <v>0.8</v>
       </c>
-      <c r="AE43" s="2">
+      <c r="AF43" s="2">
         <v>2.5</v>
       </c>
-      <c r="AF43" s="3">
+      <c r="AG43" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="str">
-        <f>E44&amp;" "&amp;C44&amp;" "&amp;F44</f>
+        <f t="shared" si="7"/>
         <v>Red beet Vegetable General</v>
       </c>
       <c r="B44" s="2">
@@ -5572,11 +5705,11 @@
         <v>207</v>
       </c>
       <c r="K44" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Beta vulgaris conditiva</v>
       </c>
       <c r="L44" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>vulgaris conditiva</v>
       </c>
       <c r="M44" s="2" t="s">
@@ -5600,49 +5733,52 @@
       <c r="S44" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T44" s="2" t="s">
+      <c r="T44" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U44" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U44" s="2">
-        <v>0</v>
-      </c>
-      <c r="V44" s="3">
-        <v>0</v>
-      </c>
-      <c r="W44" s="2">
+      <c r="V44" s="2">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="2">
         <v>0.81499999999999995</v>
       </c>
-      <c r="X44" s="2">
+      <c r="Y44" s="2">
         <v>5.5000000000000049E-2</v>
       </c>
-      <c r="Y44" s="2">
+      <c r="Z44" s="2">
         <v>86</v>
       </c>
-      <c r="Z44" s="6">
+      <c r="AA44" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA44" s="10">
+      <c r="AB44" s="10">
         <v>1.5</v>
       </c>
-      <c r="AB44" s="6">
+      <c r="AC44" s="6">
         <v>0.95</v>
       </c>
-      <c r="AC44" s="10">
+      <c r="AD44" s="10">
         <v>0.8</v>
       </c>
-      <c r="AD44" s="2">
+      <c r="AE44" s="2">
         <v>0.8</v>
       </c>
-      <c r="AE44" s="2">
+      <c r="AF44" s="2">
         <v>2</v>
       </c>
-      <c r="AF44" s="3">
+      <c r="AG44" s="3">
         <v>1.5</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="str">
-        <f>E45&amp;" "&amp;C45&amp;" "&amp;F45</f>
+        <f t="shared" si="7"/>
         <v>Cauliflower Vegetable General</v>
       </c>
       <c r="B45" s="2">
@@ -5673,11 +5809,11 @@
         <v>210</v>
       </c>
       <c r="K45" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Brassica oleracea botrytis</v>
       </c>
       <c r="L45" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oleracea botrytis</v>
       </c>
       <c r="M45" s="2" t="s">
@@ -5701,49 +5837,52 @@
       <c r="S45" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T45" s="2" t="s">
+      <c r="T45" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U45" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U45" s="2">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-      <c r="W45" s="2">
+      <c r="V45" s="2">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="2">
         <v>0.4</v>
       </c>
-      <c r="X45" s="2">
-        <v>0</v>
-      </c>
       <c r="Y45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="2">
         <v>93</v>
       </c>
-      <c r="Z45" s="6">
+      <c r="AA45" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA45" s="10">
+      <c r="AB45" s="10">
         <v>1.2</v>
       </c>
-      <c r="AB45" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC45" s="10">
+      <c r="AC45" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="10">
         <v>2</v>
       </c>
-      <c r="AD45" s="2">
+      <c r="AE45" s="2">
         <v>0.8</v>
       </c>
-      <c r="AE45" s="2">
+      <c r="AF45" s="2">
         <v>3.8</v>
       </c>
-      <c r="AF45" s="3">
+      <c r="AG45" s="3">
         <v>3.5</v>
       </c>
     </row>
-    <row r="46" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="str">
-        <f>E46&amp;" "&amp;C46&amp;" "&amp;F46</f>
+        <f t="shared" si="7"/>
         <v>Cabbage Vegetable General</v>
       </c>
       <c r="B46" s="2">
@@ -5774,11 +5913,11 @@
         <v>211</v>
       </c>
       <c r="K46" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Brassica oleracea capitata</v>
       </c>
       <c r="L46" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oleracea capitata</v>
       </c>
       <c r="M46" s="2" t="s">
@@ -5802,49 +5941,52 @@
       <c r="S46" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T46" s="2" t="s">
+      <c r="T46" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U46" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U46" s="2">
-        <v>0</v>
-      </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
-      <c r="W46" s="2">
+      <c r="V46" s="2">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="2">
         <v>0.7</v>
       </c>
-      <c r="X46" s="2">
-        <v>0</v>
-      </c>
       <c r="Y46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="2">
         <v>90</v>
       </c>
-      <c r="Z46" s="6">
+      <c r="AA46" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA46" s="10">
+      <c r="AB46" s="10">
         <v>1.2</v>
       </c>
-      <c r="AB46" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC46" s="10">
+      <c r="AC46" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD46" s="10">
         <v>2</v>
       </c>
-      <c r="AD46" s="2">
+      <c r="AE46" s="2">
         <v>0.8</v>
       </c>
-      <c r="AE46" s="2">
+      <c r="AF46" s="2">
         <v>3</v>
       </c>
-      <c r="AF46" s="3">
+      <c r="AG46" s="3">
         <v>2.6</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="str">
-        <f>E47&amp;" "&amp;C47&amp;" "&amp;F47</f>
+        <f t="shared" si="7"/>
         <v>Brussel sprout  Vegetable General</v>
       </c>
       <c r="B47" s="2">
@@ -5875,11 +6017,11 @@
         <v>212</v>
       </c>
       <c r="K47" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Brassica oleracea gemmifera</v>
       </c>
       <c r="L47" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oleracea gemmifera</v>
       </c>
       <c r="M47" s="2" t="s">
@@ -5903,49 +6045,52 @@
       <c r="S47" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T47" s="2" t="s">
+      <c r="T47" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U47" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U47" s="2">
-        <v>0</v>
-      </c>
-      <c r="V47" s="3">
-        <v>0</v>
-      </c>
-      <c r="W47" s="2">
+      <c r="V47" s="2">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="2">
         <v>0.4</v>
       </c>
-      <c r="X47" s="2">
-        <v>0</v>
-      </c>
       <c r="Y47" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="2">
         <v>80</v>
       </c>
-      <c r="Z47" s="6">
+      <c r="AA47" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA47" s="10">
+      <c r="AB47" s="10">
         <v>1.2</v>
       </c>
-      <c r="AB47" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC47" s="10">
+      <c r="AC47" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD47" s="10">
         <v>2</v>
       </c>
-      <c r="AD47" s="2">
+      <c r="AE47" s="2">
         <v>0.8</v>
       </c>
-      <c r="AE47" s="2">
+      <c r="AF47" s="2">
         <v>3.8</v>
       </c>
-      <c r="AF47" s="3">
+      <c r="AG47" s="3">
         <v>3.5</v>
       </c>
     </row>
-    <row r="48" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="str">
-        <f>E48&amp;" "&amp;C48&amp;" "&amp;F48</f>
+        <f t="shared" si="7"/>
         <v>Broccoli Vegetable Head only</v>
       </c>
       <c r="B48" s="2">
@@ -5976,11 +6121,11 @@
         <v>213</v>
       </c>
       <c r="K48" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Brassica oleracea italica</v>
       </c>
       <c r="L48" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oleracea italica</v>
       </c>
       <c r="M48" s="2" t="s">
@@ -6004,49 +6149,52 @@
       <c r="S48" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T48" s="2" t="s">
+      <c r="T48" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U48" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U48" s="2">
-        <v>0</v>
-      </c>
-      <c r="V48" s="3">
-        <v>0</v>
-      </c>
-      <c r="W48" s="2">
+      <c r="V48" s="2">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="2">
         <v>0.13</v>
       </c>
-      <c r="X48" s="2">
-        <v>0</v>
-      </c>
       <c r="Y48" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="2">
         <v>89</v>
       </c>
-      <c r="Z48" s="6">
+      <c r="AA48" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA48" s="10">
+      <c r="AB48" s="10">
         <v>1.2</v>
       </c>
-      <c r="AB48" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC48" s="10">
+      <c r="AC48" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD48" s="10">
         <v>2</v>
       </c>
-      <c r="AD48" s="2">
+      <c r="AE48" s="2">
         <v>0.8</v>
       </c>
-      <c r="AE48" s="2">
+      <c r="AF48" s="2">
         <v>3.8</v>
       </c>
-      <c r="AF48" s="3">
+      <c r="AG48" s="3">
         <v>3.5</v>
       </c>
     </row>
-    <row r="49" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="str">
-        <f>E49&amp;" "&amp;C49&amp;" "&amp;F49</f>
+        <f t="shared" si="7"/>
         <v>Broccoli Vegetable Chinese cut</v>
       </c>
       <c r="B49" s="2">
@@ -6077,11 +6225,11 @@
         <v>213</v>
       </c>
       <c r="K49" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Brassica oleracea italica</v>
       </c>
       <c r="L49" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oleracea italica</v>
       </c>
       <c r="M49" s="2" t="s">
@@ -6105,49 +6253,52 @@
       <c r="S49" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T49" s="2" t="s">
+      <c r="T49" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U49" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U49" s="2">
-        <v>0</v>
-      </c>
-      <c r="V49" s="3">
-        <v>0</v>
-      </c>
-      <c r="W49" s="2">
+      <c r="V49" s="2">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="2">
         <v>0.26</v>
       </c>
-      <c r="X49" s="2">
-        <v>0</v>
-      </c>
       <c r="Y49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="2">
         <v>89</v>
       </c>
-      <c r="Z49" s="6">
+      <c r="AA49" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA49" s="10">
+      <c r="AB49" s="10">
         <v>1.2</v>
       </c>
-      <c r="AB49" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC49" s="10">
+      <c r="AC49" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD49" s="10">
         <v>2</v>
       </c>
-      <c r="AD49" s="2">
+      <c r="AE49" s="2">
         <v>0.8</v>
       </c>
-      <c r="AE49" s="2">
+      <c r="AF49" s="2">
         <v>3.6</v>
       </c>
-      <c r="AF49" s="3">
+      <c r="AG49" s="3">
         <v>3.6</v>
       </c>
     </row>
-    <row r="50" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="str">
-        <f>E50&amp;" "&amp;C50&amp;" "&amp;F50</f>
+        <f t="shared" si="7"/>
         <v>Pak choi Vegetable General</v>
       </c>
       <c r="B50" s="2">
@@ -6178,11 +6329,11 @@
         <v>101</v>
       </c>
       <c r="K50" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Brassica rapa chinensis</v>
       </c>
       <c r="L50" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>rapa chinensis</v>
       </c>
       <c r="M50" s="2" t="s">
@@ -6206,49 +6357,52 @@
       <c r="S50" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T50" s="2" t="s">
+      <c r="T50" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U50" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U50" s="2">
-        <v>0</v>
-      </c>
-      <c r="V50" s="3">
-        <v>0</v>
-      </c>
-      <c r="W50" s="2">
+      <c r="V50" s="2">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="2">
         <v>0.63</v>
       </c>
-      <c r="X50" s="2">
-        <v>0</v>
-      </c>
       <c r="Y50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="2">
         <v>96</v>
       </c>
-      <c r="Z50" s="6">
+      <c r="AA50" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA50" s="10">
+      <c r="AB50" s="10">
         <v>1.2</v>
       </c>
-      <c r="AB50" s="6">
+      <c r="AC50" s="6">
         <v>0.8</v>
       </c>
-      <c r="AC50" s="10">
+      <c r="AD50" s="10">
         <v>1.5</v>
       </c>
-      <c r="AD50" s="2">
+      <c r="AE50" s="2">
         <v>0.8</v>
       </c>
-      <c r="AE50" s="2">
+      <c r="AF50" s="2">
         <v>4.5</v>
       </c>
-      <c r="AF50" s="3">
+      <c r="AG50" s="3">
         <v>4.8</v>
       </c>
     </row>
-    <row r="51" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="str">
-        <f>E51&amp;" "&amp;C51&amp;" "&amp;F51</f>
+        <f t="shared" si="7"/>
         <v>Choy sum Vegetable General</v>
       </c>
       <c r="B51" s="2">
@@ -6279,11 +6433,11 @@
         <v>144</v>
       </c>
       <c r="K51" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Brassica rapa parachinensis</v>
       </c>
       <c r="L51" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>rapa parachinensis</v>
       </c>
       <c r="M51" s="2" t="s">
@@ -6307,49 +6461,52 @@
       <c r="S51" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T51" s="2" t="s">
+      <c r="T51" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U51" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U51" s="2">
-        <v>0</v>
-      </c>
-      <c r="V51" s="3">
-        <v>0</v>
-      </c>
-      <c r="W51" s="2">
+      <c r="V51" s="2">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="2">
         <v>0.85</v>
       </c>
-      <c r="X51" s="2">
-        <v>0</v>
-      </c>
       <c r="Y51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="2">
         <v>90</v>
       </c>
-      <c r="Z51" s="6">
+      <c r="AA51" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA51" s="10">
+      <c r="AB51" s="10">
         <v>1.2</v>
       </c>
-      <c r="AB51" s="6">
+      <c r="AC51" s="6">
         <v>0.9</v>
       </c>
-      <c r="AC51" s="10">
+      <c r="AD51" s="10">
         <v>2</v>
       </c>
-      <c r="AD51" s="2">
+      <c r="AE51" s="2">
         <v>0.8</v>
       </c>
-      <c r="AE51" s="2">
+      <c r="AF51" s="2">
         <v>4.5</v>
       </c>
-      <c r="AF51" s="3">
+      <c r="AG51" s="3">
         <v>4.8</v>
       </c>
     </row>
-    <row r="52" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="str">
-        <f>E52&amp;" "&amp;C52&amp;" "&amp;F52</f>
+        <f t="shared" si="7"/>
         <v>Wong bok Vegetable General</v>
       </c>
       <c r="B52" s="2">
@@ -6380,11 +6537,11 @@
         <v>107</v>
       </c>
       <c r="K52" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Brassica rapa pekinensis</v>
       </c>
       <c r="L52" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>rapa pekinensis</v>
       </c>
       <c r="M52" s="2" t="s">
@@ -6408,49 +6565,52 @@
       <c r="S52" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T52" s="2" t="s">
+      <c r="T52" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U52" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U52" s="2">
-        <v>0</v>
-      </c>
-      <c r="V52" s="3">
-        <v>0</v>
-      </c>
-      <c r="W52" s="2">
+      <c r="V52" s="2">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="2">
         <v>0.8</v>
       </c>
-      <c r="X52" s="2">
-        <v>0</v>
-      </c>
       <c r="Y52" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="2">
         <v>90</v>
       </c>
-      <c r="Z52" s="6">
+      <c r="AA52" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA52" s="10">
+      <c r="AB52" s="10">
         <v>1.2</v>
       </c>
-      <c r="AB52" s="6">
+      <c r="AC52" s="6">
         <v>0.9</v>
       </c>
-      <c r="AC52" s="10">
+      <c r="AD52" s="10">
         <v>2</v>
       </c>
-      <c r="AD52" s="2">
+      <c r="AE52" s="2">
         <v>0.8</v>
       </c>
-      <c r="AE52" s="2">
+      <c r="AF52" s="2">
         <v>3</v>
       </c>
-      <c r="AF52" s="3">
+      <c r="AG52" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="str">
-        <f>E53&amp;" "&amp;C53&amp;" "&amp;F53</f>
+        <f t="shared" si="7"/>
         <v>Coriander Vegetable General</v>
       </c>
       <c r="B53" s="2">
@@ -6481,11 +6641,11 @@
         <v>205</v>
       </c>
       <c r="K53" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">Coriandrum sativum </v>
       </c>
       <c r="L53" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">sativum </v>
       </c>
       <c r="M53" s="2" t="s">
@@ -6509,49 +6669,52 @@
       <c r="S53" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T53" s="2" t="s">
+      <c r="T53" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U53" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U53" s="2">
-        <v>0</v>
-      </c>
-      <c r="V53" s="3">
-        <v>0</v>
-      </c>
-      <c r="W53" s="2">
-        <v>1</v>
+      <c r="V53" s="2">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
       </c>
       <c r="X53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y53" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="2">
         <v>95</v>
       </c>
-      <c r="Z53" s="6">
+      <c r="AA53" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA53" s="10">
+      <c r="AB53" s="10">
         <v>1.2</v>
       </c>
-      <c r="AB53" s="6">
+      <c r="AC53" s="6">
         <v>0.9</v>
       </c>
-      <c r="AC53" s="10">
+      <c r="AD53" s="10">
         <v>0.8</v>
       </c>
-      <c r="AD53" s="2">
+      <c r="AE53" s="2">
         <v>0.9</v>
       </c>
-      <c r="AE53" s="2">
+      <c r="AF53" s="2">
         <v>4.7</v>
       </c>
-      <c r="AF53" s="3">
+      <c r="AG53" s="3">
         <v>4.7</v>
       </c>
     </row>
-    <row r="54" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="str">
-        <f>E54&amp;" "&amp;C54&amp;" "&amp;F54</f>
+        <f t="shared" si="7"/>
         <v>Water melon Vegetable General</v>
       </c>
       <c r="B54" s="2">
@@ -6582,11 +6745,11 @@
         <v>205</v>
       </c>
       <c r="K54" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">Cucumis lanatus </v>
       </c>
       <c r="L54" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">lanatus </v>
       </c>
       <c r="M54" s="2" t="s">
@@ -6610,49 +6773,52 @@
       <c r="S54" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T54" s="2" t="s">
+      <c r="T54" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U54" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U54" s="2">
-        <v>0</v>
-      </c>
-      <c r="V54" s="3">
-        <v>0</v>
-      </c>
-      <c r="W54" s="2">
+      <c r="V54" s="2">
+        <v>0</v>
+      </c>
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="2">
         <v>0.85</v>
       </c>
-      <c r="X54" s="2">
-        <v>0</v>
-      </c>
       <c r="Y54" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="2">
         <v>95</v>
       </c>
-      <c r="Z54" s="6">
+      <c r="AA54" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA54" s="10">
+      <c r="AB54" s="10">
         <v>0.8</v>
       </c>
-      <c r="AB54" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC54" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD54" s="2">
+      <c r="AC54" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD54" s="10">
         <v>1</v>
       </c>
       <c r="AE54" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF54" s="2">
         <v>2</v>
       </c>
-      <c r="AF54" s="3">
+      <c r="AG54" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="str">
-        <f>E55&amp;" "&amp;C55&amp;" "&amp;F55</f>
+        <f t="shared" si="7"/>
         <v>Rock melon Vegetable General</v>
       </c>
       <c r="B55" s="2">
@@ -6683,11 +6849,11 @@
         <v>205</v>
       </c>
       <c r="K55" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">Cucumis melo </v>
       </c>
       <c r="L55" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">melo </v>
       </c>
       <c r="M55" s="2" t="s">
@@ -6711,49 +6877,52 @@
       <c r="S55" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T55" s="2" t="s">
+      <c r="T55" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U55" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U55" s="2">
-        <v>0</v>
-      </c>
-      <c r="V55" s="3">
-        <v>0</v>
-      </c>
-      <c r="W55" s="2">
+      <c r="V55" s="2">
+        <v>0</v>
+      </c>
+      <c r="W55" s="3">
+        <v>0</v>
+      </c>
+      <c r="X55" s="2">
         <v>0.7</v>
       </c>
-      <c r="X55" s="2">
-        <v>0</v>
-      </c>
       <c r="Y55" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="2">
         <v>95</v>
       </c>
-      <c r="Z55" s="6">
+      <c r="AA55" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA55" s="10">
+      <c r="AB55" s="10">
         <v>0.8</v>
       </c>
-      <c r="AB55" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC55" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD55" s="2">
+      <c r="AC55" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD55" s="10">
         <v>1</v>
       </c>
       <c r="AE55" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF55" s="2">
         <v>2</v>
       </c>
-      <c r="AF55" s="3">
+      <c r="AG55" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="str">
-        <f>E56&amp;" "&amp;C56&amp;" "&amp;F56</f>
+        <f t="shared" si="7"/>
         <v>Squash Vegetable General</v>
       </c>
       <c r="B56" s="2">
@@ -6784,11 +6953,11 @@
         <v>205</v>
       </c>
       <c r="K56" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">Cucurbita argyrosperma </v>
       </c>
       <c r="L56" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">argyrosperma </v>
       </c>
       <c r="M56" s="2" t="s">
@@ -6812,49 +6981,52 @@
       <c r="S56" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T56" s="2" t="s">
+      <c r="T56" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U56" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U56" s="2">
-        <v>0</v>
-      </c>
-      <c r="V56" s="3">
-        <v>0</v>
-      </c>
-      <c r="W56" s="2">
+      <c r="V56" s="2">
+        <v>0</v>
+      </c>
+      <c r="W56" s="3">
+        <v>0</v>
+      </c>
+      <c r="X56" s="2">
         <v>0.8</v>
       </c>
-      <c r="X56" s="2">
-        <v>0</v>
-      </c>
       <c r="Y56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="2">
         <v>80</v>
       </c>
-      <c r="Z56" s="6">
+      <c r="AA56" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA56" s="10">
+      <c r="AB56" s="10">
         <v>0.8</v>
       </c>
-      <c r="AB56" s="6">
+      <c r="AC56" s="6">
         <v>0.94</v>
       </c>
-      <c r="AC56" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD56" s="2">
+      <c r="AD56" s="10">
         <v>1</v>
       </c>
       <c r="AE56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF56" s="2">
         <v>2</v>
       </c>
-      <c r="AF56" s="3">
+      <c r="AG56" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="str">
-        <f>E57&amp;" "&amp;C57&amp;" "&amp;F57</f>
+        <f t="shared" si="7"/>
         <v>Pumpkin Vegetable General</v>
       </c>
       <c r="B57" s="2">
@@ -6885,11 +7057,11 @@
         <v>205</v>
       </c>
       <c r="K57" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">Cucurbita pepo </v>
       </c>
       <c r="L57" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">pepo </v>
       </c>
       <c r="M57" s="2" t="s">
@@ -6913,49 +7085,52 @@
       <c r="S57" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T57" s="2" t="s">
+      <c r="T57" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U57" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U57" s="2">
-        <v>0</v>
-      </c>
-      <c r="V57" s="3">
-        <v>0</v>
-      </c>
-      <c r="W57" s="2">
+      <c r="V57" s="2">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="2">
         <v>0.8</v>
       </c>
-      <c r="X57" s="2">
-        <v>0</v>
-      </c>
       <c r="Y57" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="2">
         <v>88</v>
       </c>
-      <c r="Z57" s="6">
+      <c r="AA57" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA57" s="10">
+      <c r="AB57" s="10">
         <v>0.8</v>
       </c>
-      <c r="AB57" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC57" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD57" s="2">
+      <c r="AC57" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD57" s="10">
         <v>1</v>
       </c>
       <c r="AE57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF57" s="2">
         <v>1.4</v>
       </c>
-      <c r="AF57" s="3">
+      <c r="AG57" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="str">
-        <f>E58&amp;" "&amp;C58&amp;" "&amp;F58</f>
+        <f t="shared" si="7"/>
         <v>Zucchini Vegetable General</v>
       </c>
       <c r="B58" s="2">
@@ -6986,11 +7161,11 @@
         <v>205</v>
       </c>
       <c r="K58" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">Cucurbita pepo </v>
       </c>
       <c r="L58" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">pepo </v>
       </c>
       <c r="M58" s="2" t="s">
@@ -7014,49 +7189,52 @@
       <c r="S58" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T58" s="2" t="s">
+      <c r="T58" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U58" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U58" s="2">
-        <v>0</v>
-      </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
-      <c r="W58" s="2">
+      <c r="V58" s="2">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="2">
         <v>0.4</v>
       </c>
-      <c r="X58" s="2">
-        <v>0</v>
-      </c>
       <c r="Y58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="2">
         <v>95</v>
       </c>
-      <c r="Z58" s="6">
+      <c r="AA58" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA58" s="10">
+      <c r="AB58" s="10">
         <v>0.8</v>
       </c>
-      <c r="AB58" s="6">
+      <c r="AC58" s="6">
         <v>0.85</v>
       </c>
-      <c r="AC58" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD58" s="2">
+      <c r="AD58" s="10">
         <v>1</v>
       </c>
       <c r="AE58" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF58" s="2">
         <v>3.8</v>
       </c>
-      <c r="AF58" s="3">
+      <c r="AG58" s="3">
         <v>3.2</v>
       </c>
     </row>
-    <row r="59" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="str">
-        <f>E59&amp;" "&amp;C59&amp;" "&amp;F59</f>
+        <f t="shared" si="7"/>
         <v>Carrot Vegetable General</v>
       </c>
       <c r="B59" s="2">
@@ -7087,11 +7265,11 @@
         <v>205</v>
       </c>
       <c r="K59" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">Daucus carota </v>
       </c>
       <c r="L59" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">carota </v>
       </c>
       <c r="M59" s="2" t="s">
@@ -7115,49 +7293,52 @@
       <c r="S59" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T59" s="2" t="s">
+      <c r="T59" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U59" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U59" s="2">
-        <v>0</v>
-      </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
-      <c r="W59" s="2">
+      <c r="V59" s="2">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="2">
         <v>0.9</v>
       </c>
-      <c r="X59" s="2">
+      <c r="Y59" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Y59" s="2">
+      <c r="Z59" s="2">
         <v>88</v>
       </c>
-      <c r="Z59" s="6">
+      <c r="AA59" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA59" s="10">
+      <c r="AB59" s="10">
         <v>1.2</v>
       </c>
-      <c r="AB59" s="6">
+      <c r="AC59" s="6">
         <v>0.9</v>
       </c>
-      <c r="AC59" s="10">
+      <c r="AD59" s="10">
         <v>0.7</v>
       </c>
-      <c r="AD59" s="2">
+      <c r="AE59" s="2">
         <v>0.9</v>
       </c>
-      <c r="AE59" s="2">
+      <c r="AF59" s="2">
         <v>2</v>
       </c>
-      <c r="AF59" s="3">
+      <c r="AG59" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="str">
-        <f>E60&amp;" "&amp;C60&amp;" "&amp;F60</f>
+        <f t="shared" si="7"/>
         <v>Kumara Vegetable General</v>
       </c>
       <c r="B60" s="2">
@@ -7188,11 +7369,11 @@
         <v>205</v>
       </c>
       <c r="K60" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">Ipomoea batatas </v>
       </c>
       <c r="L60" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">batatas </v>
       </c>
       <c r="M60" s="2" t="s">
@@ -7216,49 +7397,52 @@
       <c r="S60" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T60" s="2" t="s">
+      <c r="T60" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U60" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U60" s="2">
-        <v>0</v>
-      </c>
-      <c r="V60" s="3">
-        <v>0</v>
-      </c>
-      <c r="W60" s="2">
+      <c r="V60" s="2">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="2">
         <v>0.89</v>
       </c>
-      <c r="X60" s="2">
-        <v>0</v>
-      </c>
       <c r="Y60" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="2">
         <v>77.400000000000006</v>
       </c>
-      <c r="Z60" s="6">
+      <c r="AA60" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA60" s="10">
+      <c r="AB60" s="10">
         <v>0.9</v>
       </c>
-      <c r="AB60" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC60" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD60" s="2">
+      <c r="AC60" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD60" s="10">
         <v>1</v>
       </c>
       <c r="AE60" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF60" s="2">
         <v>2</v>
       </c>
-      <c r="AF60" s="3">
+      <c r="AG60" s="3">
         <v>1.8</v>
       </c>
     </row>
-    <row r="61" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="str">
-        <f>E61&amp;" "&amp;C61&amp;" "&amp;F61</f>
+        <f t="shared" si="7"/>
         <v>Lettuce Vegetable Ice berg</v>
       </c>
       <c r="B61" s="2">
@@ -7289,11 +7473,11 @@
         <v>205</v>
       </c>
       <c r="K61" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">Lactuca sativa </v>
       </c>
       <c r="L61" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">sativa </v>
       </c>
       <c r="M61" s="2" t="s">
@@ -7317,49 +7501,52 @@
       <c r="S61" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T61" s="2" t="s">
+      <c r="T61" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U61" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U61" s="2">
-        <v>0</v>
-      </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-      <c r="W61" s="2">
+      <c r="V61" s="2">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="2">
         <v>0.7</v>
       </c>
-      <c r="X61" s="2">
-        <v>0</v>
-      </c>
       <c r="Y61" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="2">
         <v>95</v>
       </c>
-      <c r="Z61" s="6">
+      <c r="AA61" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA61" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB61" s="6">
+      <c r="AB61" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC61" s="6">
         <v>0.95</v>
       </c>
-      <c r="AC61" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD61" s="2">
+      <c r="AD61" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE61" s="2">
         <v>0.9</v>
       </c>
-      <c r="AE61" s="2">
+      <c r="AF61" s="2">
         <v>3</v>
       </c>
-      <c r="AF61" s="3">
+      <c r="AG61" s="3">
         <v>2.6</v>
       </c>
     </row>
-    <row r="62" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="str">
-        <f>E62&amp;" "&amp;C62&amp;" "&amp;F62</f>
+        <f t="shared" si="7"/>
         <v>Lettuce Vegetable Leafy-salad</v>
       </c>
       <c r="B62" s="2">
@@ -7390,11 +7577,11 @@
         <v>205</v>
       </c>
       <c r="K62" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">Lactuca sativa </v>
       </c>
       <c r="L62" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">sativa </v>
       </c>
       <c r="M62" s="2" t="s">
@@ -7418,49 +7605,52 @@
       <c r="S62" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T62" s="2" t="s">
+      <c r="T62" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U62" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U62" s="2">
-        <v>0</v>
-      </c>
-      <c r="V62" s="3">
-        <v>0</v>
-      </c>
-      <c r="W62" s="2">
+      <c r="V62" s="2">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="2">
         <v>0.8</v>
       </c>
-      <c r="X62" s="2">
-        <v>0</v>
-      </c>
       <c r="Y62" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="2">
         <v>95</v>
       </c>
-      <c r="Z62" s="6">
+      <c r="AA62" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA62" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB62" s="6">
+      <c r="AB62" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC62" s="6">
         <v>0.9</v>
       </c>
-      <c r="AC62" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD62" s="2">
+      <c r="AD62" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE62" s="2">
         <v>0.9</v>
       </c>
-      <c r="AE62" s="2">
+      <c r="AF62" s="2">
         <v>3</v>
       </c>
-      <c r="AF62" s="3">
+      <c r="AG62" s="3">
         <v>3.5</v>
       </c>
     </row>
-    <row r="63" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="str">
-        <f>E63&amp;" "&amp;C63&amp;" "&amp;F63</f>
+        <f t="shared" si="7"/>
         <v>Parsnip Vegetable General</v>
       </c>
       <c r="B63" s="2">
@@ -7491,11 +7681,11 @@
         <v>205</v>
       </c>
       <c r="K63" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">Pastinaca sativa </v>
       </c>
       <c r="L63" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">sativa </v>
       </c>
       <c r="M63" s="2" t="s">
@@ -7519,49 +7709,52 @@
       <c r="S63" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T63" s="2" t="s">
+      <c r="T63" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U63" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U63" s="2">
-        <v>0</v>
-      </c>
-      <c r="V63" s="3">
-        <v>0</v>
-      </c>
-      <c r="W63" s="2">
+      <c r="V63" s="2">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="2">
         <v>0.95</v>
       </c>
-      <c r="X63" s="2">
-        <v>0</v>
-      </c>
       <c r="Y63" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="2">
         <v>83</v>
       </c>
-      <c r="Z63" s="6">
+      <c r="AA63" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA63" s="10">
+      <c r="AB63" s="10">
         <v>1.2</v>
       </c>
-      <c r="AB63" s="6">
+      <c r="AC63" s="6">
         <v>0.95</v>
       </c>
-      <c r="AC63" s="10">
+      <c r="AD63" s="10">
         <v>0.8</v>
       </c>
-      <c r="AD63" s="2">
+      <c r="AE63" s="2">
         <v>0.9</v>
       </c>
-      <c r="AE63" s="2">
+      <c r="AF63" s="2">
         <v>2</v>
       </c>
-      <c r="AF63" s="3">
+      <c r="AG63" s="3">
         <v>1.35</v>
       </c>
     </row>
-    <row r="64" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="str">
-        <f>E64&amp;" "&amp;C64&amp;" "&amp;F64</f>
+        <f t="shared" si="7"/>
         <v>Bean Vegetable General</v>
       </c>
       <c r="B64" s="2">
@@ -7592,11 +7785,11 @@
         <v>205</v>
       </c>
       <c r="K64" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">Phaseolus vulgaris </v>
       </c>
       <c r="L64" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">vulgaris </v>
       </c>
       <c r="M64" s="2" t="s">
@@ -7620,49 +7813,52 @@
       <c r="S64" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T64" s="2" t="s">
+      <c r="T64" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U64" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U64" s="2">
-        <v>0</v>
-      </c>
-      <c r="V64" s="3">
-        <v>0</v>
-      </c>
-      <c r="W64" s="2">
+      <c r="V64" s="2">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="2">
         <v>0.44</v>
       </c>
-      <c r="X64" s="2">
+      <c r="Y64" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Y64" s="2">
+      <c r="Z64" s="2">
         <v>89</v>
       </c>
-      <c r="Z64" s="6">
+      <c r="AA64" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA64" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB64" s="6">
+      <c r="AB64" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC64" s="6">
         <v>0.9</v>
       </c>
-      <c r="AC64" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD64" s="2">
+      <c r="AD64" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE64" s="2">
         <v>1.5</v>
       </c>
-      <c r="AE64" s="2">
+      <c r="AF64" s="2">
         <v>2.5</v>
       </c>
-      <c r="AF64" s="3">
+      <c r="AG64" s="3">
         <v>2.8</v>
       </c>
     </row>
-    <row r="65" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="str">
-        <f>E65&amp;" "&amp;C65&amp;" "&amp;F65</f>
+        <f t="shared" si="7"/>
         <v>Pea Vegetable General</v>
       </c>
       <c r="B65" s="2">
@@ -7693,11 +7889,11 @@
         <v>205</v>
       </c>
       <c r="K65" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">Pisum sativum </v>
       </c>
       <c r="L65" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">sativum </v>
       </c>
       <c r="M65" s="2" t="s">
@@ -7721,49 +7917,52 @@
       <c r="S65" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T65" s="2" t="s">
+      <c r="T65" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U65" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U65" s="2">
-        <v>0</v>
-      </c>
-      <c r="V65" s="3">
-        <v>0</v>
-      </c>
-      <c r="W65" s="2">
+      <c r="V65" s="2">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="2">
         <v>0.34</v>
       </c>
-      <c r="X65" s="2">
+      <c r="Y65" s="2">
         <v>0.08</v>
       </c>
-      <c r="Y65" s="2">
+      <c r="Z65" s="2">
         <v>73</v>
       </c>
-      <c r="Z65" s="6">
+      <c r="AA65" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA65" s="10">
+      <c r="AB65" s="10">
         <v>0.7</v>
       </c>
-      <c r="AB65" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC65" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD65" s="2">
+      <c r="AC65" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD65" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE65" s="2">
         <v>1.5</v>
       </c>
-      <c r="AE65" s="2">
+      <c r="AF65" s="2">
         <v>2.1</v>
       </c>
-      <c r="AF65" s="3">
+      <c r="AG65" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="str">
-        <f>E66&amp;" "&amp;C66&amp;" "&amp;F66</f>
+        <f t="shared" si="7"/>
         <v>Tomato Vegetable General</v>
       </c>
       <c r="B66" s="2">
@@ -7794,11 +7993,11 @@
         <v>205</v>
       </c>
       <c r="K66" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">Solanum  lycopersicum </v>
       </c>
       <c r="L66" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">lycopersicum </v>
       </c>
       <c r="M66" s="2" t="s">
@@ -7822,49 +8021,52 @@
       <c r="S66" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T66" s="2" t="s">
+      <c r="T66" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U66" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U66" s="2">
-        <v>0</v>
-      </c>
-      <c r="V66" s="3">
-        <v>0</v>
-      </c>
-      <c r="W66" s="2">
+      <c r="V66" s="2">
+        <v>0</v>
+      </c>
+      <c r="W66" s="3">
+        <v>0</v>
+      </c>
+      <c r="X66" s="2">
         <v>0.5</v>
       </c>
-      <c r="X66" s="2">
-        <v>0</v>
-      </c>
       <c r="Y66" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="2">
         <v>95</v>
       </c>
-      <c r="Z66" s="6">
+      <c r="AA66" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA66" s="10">
+      <c r="AB66" s="10">
         <v>0.6</v>
       </c>
-      <c r="AB66" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC66" s="10">
+      <c r="AC66" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD66" s="10">
         <v>1.2</v>
       </c>
-      <c r="AD66" s="2">
+      <c r="AE66" s="2">
         <v>0.9</v>
       </c>
-      <c r="AE66" s="2">
+      <c r="AF66" s="2">
         <v>2</v>
       </c>
-      <c r="AF66" s="3">
+      <c r="AG66" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="str">
-        <f>E67&amp;" "&amp;C67&amp;" "&amp;F67</f>
+        <f t="shared" si="7"/>
         <v>Potato Vegetable General</v>
       </c>
       <c r="B67" s="2">
@@ -7895,11 +8097,11 @@
         <v>205</v>
       </c>
       <c r="K67" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">Solanum  tuberosum </v>
       </c>
       <c r="L67" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">tuberosum </v>
       </c>
       <c r="M67" s="2" t="s">
@@ -7923,49 +8125,52 @@
       <c r="S67" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T67" s="2" t="s">
+      <c r="T67" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U67" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U67" s="2">
-        <v>0</v>
-      </c>
-      <c r="V67" s="3">
-        <v>0</v>
-      </c>
-      <c r="W67" s="2">
+      <c r="V67" s="2">
+        <v>0</v>
+      </c>
+      <c r="W67" s="3">
+        <v>0</v>
+      </c>
+      <c r="X67" s="2">
         <v>0.9</v>
       </c>
-      <c r="X67" s="2">
+      <c r="Y67" s="2">
         <v>0.06</v>
       </c>
-      <c r="Y67" s="2">
+      <c r="Z67" s="2">
         <v>77.7</v>
       </c>
-      <c r="Z67" s="6">
+      <c r="AA67" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA67" s="10">
+      <c r="AB67" s="10">
         <v>0.6</v>
       </c>
-      <c r="AB67" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC67" s="10">
+      <c r="AC67" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD67" s="10">
         <v>1.2</v>
       </c>
-      <c r="AD67" s="2">
+      <c r="AE67" s="2">
         <v>0.9</v>
       </c>
-      <c r="AE67" s="2">
+      <c r="AF67" s="2">
         <v>2</v>
       </c>
-      <c r="AF67" s="3">
+      <c r="AG67" s="3">
         <v>1.8</v>
       </c>
     </row>
-    <row r="68" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="str">
-        <f>E68&amp;" "&amp;C68&amp;" "&amp;F68</f>
+        <f t="shared" si="7"/>
         <v>Spinach Vegetable General</v>
       </c>
       <c r="B68" s="2">
@@ -7996,11 +8201,11 @@
         <v>205</v>
       </c>
       <c r="K68" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">Spinacia loeracea </v>
       </c>
       <c r="L68" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">loeracea </v>
       </c>
       <c r="M68" s="2" t="s">
@@ -8024,49 +8229,52 @@
       <c r="S68" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T68" s="2" t="s">
+      <c r="T68" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U68" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U68" s="2">
-        <v>0</v>
-      </c>
-      <c r="V68" s="3">
-        <v>0</v>
-      </c>
-      <c r="W68" s="2">
+      <c r="V68" s="2">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="2">
         <v>0.7</v>
       </c>
-      <c r="X68" s="2">
-        <v>0</v>
-      </c>
       <c r="Y68" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="2">
         <v>92</v>
       </c>
-      <c r="Z68" s="6">
+      <c r="AA68" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA68" s="10">
+      <c r="AB68" s="10">
         <v>1.5</v>
       </c>
-      <c r="AB68" s="6">
+      <c r="AC68" s="6">
         <v>0.8</v>
       </c>
-      <c r="AC68" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD68" s="2">
+      <c r="AD68" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE68" s="2">
         <v>0.8</v>
       </c>
-      <c r="AE68" s="2">
+      <c r="AF68" s="2">
         <v>4</v>
       </c>
-      <c r="AF68" s="3">
+      <c r="AG68" s="3">
         <v>4.5</v>
       </c>
     </row>
-    <row r="69" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="str">
-        <f>E69&amp;" "&amp;C69&amp;" "&amp;F69</f>
+        <f t="shared" si="7"/>
         <v>Broad bean Vegetable General</v>
       </c>
       <c r="B69" s="2">
@@ -8097,11 +8305,11 @@
         <v>205</v>
       </c>
       <c r="K69" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">Vicia faba </v>
       </c>
       <c r="L69" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">faba </v>
       </c>
       <c r="M69" s="2" t="s">
@@ -8125,49 +8333,52 @@
       <c r="S69" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T69" s="2" t="s">
+      <c r="T69" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U69" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U69" s="2">
-        <v>0</v>
-      </c>
-      <c r="V69" s="3">
-        <v>0</v>
-      </c>
-      <c r="W69" s="2">
+      <c r="V69" s="2">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="2">
         <v>0.3</v>
       </c>
-      <c r="X69" s="2">
+      <c r="Y69" s="2">
         <v>0.05</v>
       </c>
-      <c r="Y69" s="2">
+      <c r="Z69" s="2">
         <v>76</v>
       </c>
-      <c r="Z69" s="6">
+      <c r="AA69" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA69" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB69" s="6">
+      <c r="AB69" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC69" s="6">
         <v>0.9</v>
       </c>
-      <c r="AC69" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD69" s="2">
+      <c r="AD69" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE69" s="2">
         <v>1.5</v>
       </c>
-      <c r="AE69" s="2">
+      <c r="AF69" s="2">
         <v>1.7</v>
       </c>
-      <c r="AF69" s="3">
+      <c r="AG69" s="3">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="str">
-        <f>E70&amp;" "&amp;C70&amp;" "&amp;F70</f>
+        <f t="shared" si="7"/>
         <v>Sweetcorn Vegetable General</v>
       </c>
       <c r="B70" s="2">
@@ -8198,11 +8409,11 @@
         <v>205</v>
       </c>
       <c r="K70" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">Zea mays </v>
       </c>
       <c r="L70" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">mays </v>
       </c>
       <c r="M70" s="2" t="s">
@@ -8226,48 +8437,51 @@
       <c r="S70" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T70" s="2" t="s">
+      <c r="T70" s="2">
+        <v>50000</v>
+      </c>
+      <c r="U70" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U70" s="2">
-        <v>0</v>
-      </c>
-      <c r="V70" s="3">
-        <v>0</v>
-      </c>
-      <c r="W70" s="2">
+      <c r="V70" s="2">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="2">
         <v>0.48</v>
       </c>
-      <c r="X70" s="2">
+      <c r="Y70" s="2">
         <v>0.02</v>
       </c>
-      <c r="Y70" s="2">
+      <c r="Z70" s="2">
         <v>78</v>
       </c>
-      <c r="Z70" s="6">
+      <c r="AA70" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA70" s="10">
+      <c r="AB70" s="10">
         <v>1.5</v>
       </c>
-      <c r="AB70" s="12">
+      <c r="AC70" s="12">
         <v>0.75</v>
       </c>
-      <c r="AC70" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD70" s="2">
-        <v>0.9</v>
+      <c r="AD70" s="13">
+        <v>1</v>
       </c>
       <c r="AE70" s="2">
         <v>0.9</v>
       </c>
-      <c r="AF70" s="3">
+      <c r="AF70" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="AG70" s="3">
         <v>1.4</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G2:AF70">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G2:AG70">
     <sortCondition ref="H2:H70"/>
     <sortCondition ref="I2:I70"/>
     <sortCondition ref="J2:J70"/>
